--- a/results/mp/deberta/corona/confidence/126/stop-words-topk-desired-masking-0.15/root_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/126/stop-words-topk-desired-masking-0.15/root_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="867">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1009" uniqueCount="867">
   <si>
     <t>anchor score</t>
   </si>
@@ -100,664 +100,664 @@
     <t>worse</t>
   </si>
   <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>stress</t>
+  </si>
+  <si>
+    <t>killed</t>
+  </si>
+  <si>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>death</t>
+  </si>
+  <si>
+    <t>fake</t>
+  </si>
+  <si>
+    <t>chaos</t>
+  </si>
+  <si>
+    <t>threat</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>kill</t>
+  </si>
+  <si>
+    <t>cause</t>
+  </si>
+  <si>
+    <t>suffering</t>
+  </si>
+  <si>
+    <t>dangerous</t>
+  </si>
+  <si>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>waste</t>
+  </si>
+  <si>
+    <t>accused</t>
+  </si>
+  <si>
+    <t>illegal</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>struggle</t>
+  </si>
+  <si>
+    <t>stupid</t>
+  </si>
+  <si>
+    <t>crime</t>
+  </si>
+  <si>
+    <t>loss</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>evil</t>
+  </si>
+  <si>
+    <t>unemployment</t>
+  </si>
+  <si>
+    <t>threats</t>
+  </si>
+  <si>
+    <t>affected</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>banned</t>
+  </si>
+  <si>
+    <t>dead</t>
+  </si>
+  <si>
+    <t>killing</t>
+  </si>
+  <si>
+    <t>fighting</t>
+  </si>
+  <si>
+    <t>stolen</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>fight</t>
+  </si>
+  <si>
+    <t>worried</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>vulnerable</t>
+  </si>
+  <si>
+    <t>losing</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>desperate</t>
+  </si>
+  <si>
+    <t>critical</t>
+  </si>
+  <si>
+    <t>kills</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>threatening</t>
+  </si>
+  <si>
+    <t>shock</t>
+  </si>
+  <si>
+    <t>blame</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>serious</t>
+  </si>
+  <si>
+    <t>failure</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>scare</t>
+  </si>
+  <si>
+    <t>hell</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>delivery</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>face</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>attack</t>
+  </si>
+  <si>
+    <t>depression</t>
+  </si>
+  <si>
+    <t>misleading</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>horrible</t>
+  </si>
+  <si>
+    <t>warned</t>
+  </si>
+  <si>
+    <t>infected</t>
+  </si>
+  <si>
+    <t>hurt</t>
+  </si>
+  <si>
+    <t>bastards</t>
+  </si>
+  <si>
+    <t>fail</t>
+  </si>
+  <si>
+    <t>national</t>
+  </si>
+  <si>
+    <t>recipe</t>
+  </si>
+  <si>
+    <t>paper</t>
+  </si>
+  <si>
+    <t>wind</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>toilet</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>us</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>uk</t>
+  </si>
+  <si>
+    <t>san</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>ia</t>
+  </si>
+  <si>
+    <t>lost</t>
+  </si>
+  <si>
+    <t>cancelled</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>confused</t>
+  </si>
+  <si>
+    <t>awful</t>
+  </si>
+  <si>
+    <t>disabled</t>
+  </si>
+  <si>
+    <t>selfish</t>
+  </si>
+  <si>
+    <t>sorry</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>charged</t>
+  </si>
+  <si>
+    <t>doubled</t>
+  </si>
+  <si>
+    <t>house</t>
+  </si>
+  <si>
+    <t>holiday</t>
+  </si>
+  <si>
+    <t>fda</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>eco</t>
+  </si>
+  <si>
+    <t>friendly</t>
+  </si>
+  <si>
+    <t>profits</t>
+  </si>
+  <si>
+    <t>congress</t>
+  </si>
+  <si>
+    <t>volunteers</t>
+  </si>
+  <si>
+    <t>volunteer</t>
+  </si>
+  <si>
+    <t>feels</t>
+  </si>
+  <si>
+    <t>extra</t>
+  </si>
+  <si>
+    <t>certainly</t>
+  </si>
+  <si>
+    <t>course</t>
+  </si>
+  <si>
+    <t>buying</t>
+  </si>
+  <si>
+    <t>may</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>incredible</t>
+  </si>
+  <si>
+    <t>stores</t>
+  </si>
+  <si>
+    <t>another</t>
+  </si>
+  <si>
+    <t>become</t>
+  </si>
+  <si>
+    <t>tech</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>plan</t>
+  </si>
+  <si>
+    <t>eu</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>non</t>
+  </si>
+  <si>
+    <t>shift</t>
+  </si>
+  <si>
+    <t>healthcare</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>advantage</t>
+  </si>
+  <si>
+    <t>rt</t>
+  </si>
+  <si>
+    <t>simple</t>
+  </si>
+  <si>
+    <t>solution</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>consider</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>want</t>
+  </si>
+  <si>
+    <t>daily</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>rest</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>come</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>march</t>
+  </si>
+  <si>
+    <t>shops</t>
+  </si>
+  <si>
+    <t>others</t>
+  </si>
+  <si>
+    <t>two</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>feel</t>
+  </si>
+  <si>
+    <t>everything</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>week</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>latest</t>
+  </si>
+  <si>
+    <t>services</t>
+  </si>
+  <si>
+    <t>life</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>know</t>
+  </si>
+  <si>
+    <t>workers</t>
+  </si>
+  <si>
+    <t>market</t>
+  </si>
+  <si>
+    <t>community</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>dona</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>supermarkets</t>
+  </si>
+  <si>
+    <t>foods</t>
+  </si>
+  <si>
+    <t>causes</t>
+  </si>
+  <si>
+    <t>outbreak</t>
+  </si>
+  <si>
+    <t>wasted</t>
+  </si>
+  <si>
+    <t>symptoms</t>
+  </si>
+  <si>
+    <t>worry</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>insane</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>stress</t>
-  </si>
-  <si>
-    <t>killed</t>
-  </si>
-  <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>death</t>
-  </si>
-  <si>
-    <t>fake</t>
-  </si>
-  <si>
     <t>please</t>
-  </si>
-  <si>
-    <t>chaos</t>
-  </si>
-  <si>
-    <t>threat</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>kill</t>
-  </si>
-  <si>
-    <t>cause</t>
-  </si>
-  <si>
-    <t>suffering</t>
-  </si>
-  <si>
-    <t>dangerous</t>
-  </si>
-  <si>
-    <t>shame</t>
-  </si>
-  <si>
-    <t>waste</t>
-  </si>
-  <si>
-    <t>accused</t>
-  </si>
-  <si>
-    <t>illegal</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>struggle</t>
-  </si>
-  <si>
-    <t>stupid</t>
-  </si>
-  <si>
-    <t>crime</t>
-  </si>
-  <si>
-    <t>loss</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>evil</t>
-  </si>
-  <si>
-    <t>unemployment</t>
-  </si>
-  <si>
-    <t>threats</t>
-  </si>
-  <si>
-    <t>affected</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>banned</t>
-  </si>
-  <si>
-    <t>dead</t>
-  </si>
-  <si>
-    <t>killing</t>
-  </si>
-  <si>
-    <t>fighting</t>
-  </si>
-  <si>
-    <t>stolen</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>fight</t>
-  </si>
-  <si>
-    <t>worried</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>vulnerable</t>
-  </si>
-  <si>
-    <t>losing</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>desperate</t>
-  </si>
-  <si>
-    <t>critical</t>
-  </si>
-  <si>
-    <t>kills</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>threatening</t>
-  </si>
-  <si>
-    <t>shock</t>
-  </si>
-  <si>
-    <t>blame</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>serious</t>
-  </si>
-  <si>
-    <t>failure</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>scare</t>
-  </si>
-  <si>
-    <t>hell</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>delivery</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>face</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>prices</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>attack</t>
-  </si>
-  <si>
-    <t>depression</t>
-  </si>
-  <si>
-    <t>misleading</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>horrible</t>
-  </si>
-  <si>
-    <t>warned</t>
-  </si>
-  <si>
-    <t>infected</t>
-  </si>
-  <si>
-    <t>hurt</t>
-  </si>
-  <si>
-    <t>bastards</t>
-  </si>
-  <si>
-    <t>fail</t>
-  </si>
-  <si>
-    <t>national</t>
-  </si>
-  <si>
-    <t>recipe</t>
-  </si>
-  <si>
-    <t>paper</t>
-  </si>
-  <si>
-    <t>wind</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>toilet</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>us</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>uk</t>
-  </si>
-  <si>
-    <t>san</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>via</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>people</t>
-  </si>
-  <si>
-    <t>ia</t>
-  </si>
-  <si>
-    <t>lost</t>
-  </si>
-  <si>
-    <t>cancelled</t>
-  </si>
-  <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>confused</t>
-  </si>
-  <si>
-    <t>awful</t>
-  </si>
-  <si>
-    <t>disabled</t>
-  </si>
-  <si>
-    <t>selfish</t>
-  </si>
-  <si>
-    <t>sorry</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>charged</t>
-  </si>
-  <si>
-    <t>doubled</t>
-  </si>
-  <si>
-    <t>house</t>
-  </si>
-  <si>
-    <t>holiday</t>
-  </si>
-  <si>
-    <t>fda</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>eco</t>
-  </si>
-  <si>
-    <t>friendly</t>
-  </si>
-  <si>
-    <t>profits</t>
-  </si>
-  <si>
-    <t>congress</t>
-  </si>
-  <si>
-    <t>volunteers</t>
-  </si>
-  <si>
-    <t>volunteer</t>
-  </si>
-  <si>
-    <t>feels</t>
-  </si>
-  <si>
-    <t>extra</t>
-  </si>
-  <si>
-    <t>certainly</t>
-  </si>
-  <si>
-    <t>course</t>
-  </si>
-  <si>
-    <t>buying</t>
-  </si>
-  <si>
-    <t>may</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>incredible</t>
-  </si>
-  <si>
-    <t>stores</t>
-  </si>
-  <si>
-    <t>another</t>
-  </si>
-  <si>
-    <t>become</t>
-  </si>
-  <si>
-    <t>tech</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>plan</t>
-  </si>
-  <si>
-    <t>eu</t>
-  </si>
-  <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>close</t>
-  </si>
-  <si>
-    <t>non</t>
-  </si>
-  <si>
-    <t>shift</t>
-  </si>
-  <si>
-    <t>healthcare</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>advantage</t>
-  </si>
-  <si>
-    <t>rt</t>
-  </si>
-  <si>
-    <t>simple</t>
-  </si>
-  <si>
-    <t>solution</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>consider</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>want</t>
-  </si>
-  <si>
-    <t>daily</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>rest</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>come</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>march</t>
-  </si>
-  <si>
-    <t>shops</t>
-  </si>
-  <si>
-    <t>others</t>
-  </si>
-  <si>
-    <t>two</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>feel</t>
-  </si>
-  <si>
-    <t>everything</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>week</t>
-  </si>
-  <si>
-    <t>line</t>
-  </si>
-  <si>
-    <t>latest</t>
-  </si>
-  <si>
-    <t>services</t>
-  </si>
-  <si>
-    <t>life</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>know</t>
-  </si>
-  <si>
-    <t>workers</t>
-  </si>
-  <si>
-    <t>market</t>
-  </si>
-  <si>
-    <t>community</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>dona</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>today</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>supermarkets</t>
-  </si>
-  <si>
-    <t>foods</t>
-  </si>
-  <si>
-    <t>causes</t>
-  </si>
-  <si>
-    <t>outbreak</t>
-  </si>
-  <si>
-    <t>wasted</t>
-  </si>
-  <si>
-    <t>symptoms</t>
-  </si>
-  <si>
-    <t>worry</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>insane</t>
   </si>
   <si>
     <t>social</t>
@@ -2980,10 +2980,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3041,7 +3041,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.03315409890746032</v>
+        <v>0.03367670244891958</v>
       </c>
       <c r="C3">
         <v>237</v>
@@ -3091,7 +3091,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.03244710725346969</v>
+        <v>0.03295856658186531</v>
       </c>
       <c r="C4">
         <v>227</v>
@@ -3141,7 +3141,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.01362050002716439</v>
+        <v>0.01383519811232454</v>
       </c>
       <c r="C5">
         <v>40</v>
@@ -3162,7 +3162,7 @@
         <v>35</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K5">
         <v>0.01024755624784691</v>
@@ -3191,7 +3191,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.01218254557931092</v>
+        <v>0.01237457738453378</v>
       </c>
       <c r="C6">
         <v>32</v>
@@ -3212,7 +3212,7 @@
         <v>2486</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K6">
         <v>0.009736173820091334</v>
@@ -3241,7 +3241,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.01199068247712525</v>
+        <v>0.01217968997042343</v>
       </c>
       <c r="C7">
         <v>31</v>
@@ -3262,7 +3262,7 @@
         <v>5</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>28</v>
+        <v>246</v>
       </c>
       <c r="K7">
         <v>0.00898317623554269</v>
@@ -3271,19 +3271,19 @@
         <v>229</v>
       </c>
       <c r="M7">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="N7">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O7">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>97</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3291,7 +3291,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.01076795073905619</v>
+        <v>0.01093768447865191</v>
       </c>
       <c r="C8">
         <v>25</v>
@@ -3312,7 +3312,7 @@
         <v>4</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K8">
         <v>0.008963540854172175</v>
@@ -3341,7 +3341,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.01032825551916883</v>
+        <v>0.01049105840295341</v>
       </c>
       <c r="C9">
         <v>23</v>
@@ -3362,7 +3362,7 @@
         <v>54</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K9">
         <v>0.008436996393852212</v>
@@ -3391,7 +3391,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.0101012331694943</v>
+        <v>0.010260457530929</v>
       </c>
       <c r="C10">
         <v>22</v>
@@ -3412,7 +3412,7 @@
         <v>4</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K10">
         <v>0.008289521922827513</v>
@@ -3441,7 +3441,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.0101012331694943</v>
+        <v>0.010260457530929</v>
       </c>
       <c r="C11">
         <v>22</v>
@@ -3462,7 +3462,7 @@
         <v>3</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K11">
         <v>0.00813937585249635</v>
@@ -3491,7 +3491,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.0101012331694943</v>
+        <v>0.010260457530929</v>
       </c>
       <c r="C12">
         <v>22</v>
@@ -3512,7 +3512,7 @@
         <v>12</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>35</v>
+        <v>247</v>
       </c>
       <c r="K12">
         <v>0.00785292054085176</v>
@@ -3521,19 +3521,19 @@
         <v>175</v>
       </c>
       <c r="M12">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="N12">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O12">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>52</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3541,7 +3541,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.00986898986825613</v>
+        <v>0.01002455341019319</v>
       </c>
       <c r="C13">
         <v>21</v>
@@ -3562,7 +3562,7 @@
         <v>9</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K13">
         <v>0.006973514719847844</v>
@@ -3591,7 +3591,7 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.009136909184483189</v>
+        <v>0.009280933038400331</v>
       </c>
       <c r="C14">
         <v>18</v>
@@ -3612,7 +3612,7 @@
         <v>13</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K14">
         <v>0.006768366307514094</v>
@@ -3641,7 +3641,7 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.009136909184483189</v>
+        <v>0.009280933038400331</v>
       </c>
       <c r="C15">
         <v>18</v>
@@ -3662,7 +3662,7 @@
         <v>1697</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K15">
         <v>0.006689813941319744</v>
@@ -3691,7 +3691,7 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.008879479653715282</v>
+        <v>0.009019445681032127</v>
       </c>
       <c r="C16">
         <v>17</v>
@@ -3712,7 +3712,7 @@
         <v>14</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K16">
         <v>0.0064484180121816</v>
@@ -3741,7 +3741,7 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.00861436059124495</v>
+        <v>0.008750147582921525</v>
       </c>
       <c r="C17">
         <v>16</v>
@@ -3762,7 +3762,7 @@
         <v>38</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K17">
         <v>0.006393536860847636</v>
@@ -3791,7 +3791,7 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.00861436059124495</v>
+        <v>0.008750147582921525</v>
       </c>
       <c r="C18">
         <v>16</v>
@@ -3812,7 +3812,7 @@
         <v>3</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K18">
         <v>0.006338180521427803</v>
@@ -3841,7 +3841,7 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.00861436059124495</v>
+        <v>0.008750147582921525</v>
       </c>
       <c r="C19">
         <v>16</v>
@@ -3862,7 +3862,7 @@
         <v>10</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K19">
         <v>0.006169131909416014</v>
@@ -3891,7 +3891,7 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.008340818777029291</v>
+        <v>0.008472293966378037</v>
       </c>
       <c r="C20">
         <v>15</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K20">
         <v>0.005846528160995747</v>
@@ -3941,7 +3941,7 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.0080579964846415</v>
+        <v>0.008185013584750118</v>
       </c>
       <c r="C21">
         <v>14</v>
@@ -3962,7 +3962,7 @@
         <v>37</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K21">
         <v>0.005816313342909836</v>
@@ -3991,7 +3991,7 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.0080579964846415</v>
+        <v>0.008185013584750118</v>
       </c>
       <c r="C22">
         <v>14</v>
@@ -4012,7 +4012,7 @@
         <v>10</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K22">
         <v>0.005816313342909836</v>
@@ -4041,28 +4041,28 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.0080579964846415</v>
+        <v>0.00788727644452521</v>
       </c>
       <c r="C23">
+        <v>13</v>
+      </c>
+      <c r="D23">
+        <v>13</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23">
         <v>14</v>
       </c>
-      <c r="D23">
-        <v>243</v>
-      </c>
-      <c r="E23">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="F23">
-        <v>0.06000000000000005</v>
-      </c>
-      <c r="G23" t="b">
-        <v>1</v>
-      </c>
-      <c r="H23">
-        <v>97</v>
-      </c>
       <c r="J23" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K23">
         <v>0.005785940741876439</v>
@@ -4091,7 +4091,7 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.007764879704267488</v>
+        <v>0.00788727644452521</v>
       </c>
       <c r="C24">
         <v>13</v>
@@ -4109,10 +4109,10 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K24">
         <v>0.005309543365716663</v>
@@ -4141,7 +4141,7 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.007764879704267488</v>
+        <v>0.00788727644452521</v>
       </c>
       <c r="C25">
         <v>13</v>
@@ -4159,10 +4159,10 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K25">
         <v>0.005276254364416154</v>
@@ -4191,7 +4191,7 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.007764879704267488</v>
+        <v>0.00788727644452521</v>
       </c>
       <c r="C26">
         <v>13</v>
@@ -4209,10 +4209,10 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K26">
         <v>0.005175102725048513</v>
@@ -4241,13 +4241,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.007764879704267488</v>
+        <v>0.007577850093673043</v>
       </c>
       <c r="C27">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D27">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -4259,10 +4259,10 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K27">
         <v>0.004931019547108618</v>
@@ -4291,7 +4291,7 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.007460255109377663</v>
+        <v>0.007577850093673043</v>
       </c>
       <c r="C28">
         <v>12</v>
@@ -4309,10 +4309,10 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K28">
         <v>0.004895157110814928</v>
@@ -4341,13 +4341,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.007460255109377663</v>
+        <v>0.007255239098196477</v>
       </c>
       <c r="C29">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D29">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -4359,10 +4359,10 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K29">
         <v>0.004895157110814928</v>
@@ -4391,28 +4391,28 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.007460255109377663</v>
+        <v>0.007255239098196477</v>
       </c>
       <c r="C30">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D30">
-        <v>187</v>
+        <v>11</v>
       </c>
       <c r="E30">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K30">
         <v>0.004711752324511057</v>
@@ -4441,28 +4441,28 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.0071426504724959</v>
+        <v>0.007255239098196477</v>
       </c>
       <c r="C31">
         <v>11</v>
       </c>
       <c r="D31">
-        <v>11</v>
+        <v>199</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>219</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K31">
         <v>0.004636359422944331</v>
@@ -4491,28 +4491,28 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.0071426504724959</v>
+        <v>0.007255239098196477</v>
       </c>
       <c r="C32">
         <v>11</v>
       </c>
       <c r="D32">
-        <v>11</v>
+        <v>280</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>614</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K32">
         <v>0.004598199437205761</v>
@@ -4541,28 +4541,28 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.0071426504724959</v>
+        <v>0.007255239098196477</v>
       </c>
       <c r="C33">
         <v>11</v>
       </c>
       <c r="D33">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="E33">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="F33">
-        <v>0.06000000000000005</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G33" t="b">
         <v>1</v>
       </c>
       <c r="H33">
-        <v>219</v>
+        <v>89</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K33">
         <v>0.004598199437205761</v>
@@ -4591,25 +4591,25 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.0071426504724959</v>
+        <v>0.00691759905616227</v>
       </c>
       <c r="C34">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D34">
-        <v>280</v>
+        <v>10</v>
       </c>
       <c r="E34">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>0.04000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34">
-        <v>614</v>
+        <v>9</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>248</v>
@@ -4641,28 +4641,28 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.0071426504724959</v>
+        <v>0.006562610687191143</v>
       </c>
       <c r="C35">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D35">
-        <v>206</v>
+        <v>9</v>
       </c>
       <c r="E35">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>0.05000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K35">
         <v>0.004362235007182378</v>
@@ -4691,13 +4691,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.006810250013582195</v>
+        <v>0.006562610687191143</v>
       </c>
       <c r="C36">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D36">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -4709,10 +4709,10 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K36">
         <v>0.004280690714017633</v>
@@ -4741,13 +4741,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.006460770443433712</v>
+        <v>0.006187288692266889</v>
       </c>
       <c r="C37">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D37">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -4759,10 +4759,10 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K37">
         <v>0.00415537496332892</v>
@@ -4791,13 +4791,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.006460770443433712</v>
+        <v>0.006187288692266889</v>
       </c>
       <c r="C38">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D38">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -4809,10 +4809,10 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K38">
         <v>0.004026160600701971</v>
@@ -4841,7 +4841,7 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.006091272789655461</v>
+        <v>0.006187288692266889</v>
       </c>
       <c r="C39">
         <v>8</v>
@@ -4859,10 +4859,10 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K39">
         <v>0.004026160600701971</v>
@@ -4891,7 +4891,7 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.006091272789655461</v>
+        <v>0.006187288692266889</v>
       </c>
       <c r="C40">
         <v>8</v>
@@ -4909,10 +4909,10 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K40">
         <v>0.004026160600701971</v>
@@ -4941,7 +4941,7 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.006091272789655461</v>
+        <v>0.006187288692266889</v>
       </c>
       <c r="C41">
         <v>8</v>
@@ -4959,10 +4959,10 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K41">
         <v>0.003892659409636153</v>
@@ -4991,28 +4991,28 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.006091272789655461</v>
+        <v>0.006187288692266889</v>
       </c>
       <c r="C42">
         <v>8</v>
       </c>
       <c r="D42">
-        <v>8</v>
+        <v>146</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F42">
-        <v>1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>270</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K42">
         <v>0.003847129663141543</v>
@@ -5041,28 +5041,28 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.006091272789655461</v>
+        <v>0.006187288692266889</v>
       </c>
       <c r="C43">
         <v>8</v>
       </c>
       <c r="D43">
-        <v>8</v>
+        <v>138</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F43">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>512</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K43">
         <v>0.003754414118902298</v>
@@ -5091,28 +5091,28 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.006091272789655461</v>
+        <v>0.006187288692266889</v>
       </c>
       <c r="C44">
         <v>8</v>
       </c>
       <c r="D44">
-        <v>146</v>
+        <v>236</v>
       </c>
       <c r="E44">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="F44">
-        <v>0.05000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G44" t="b">
         <v>1</v>
       </c>
       <c r="H44">
-        <v>270</v>
+        <v>665</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K44">
         <v>0.003707186904083417</v>
@@ -5141,28 +5141,28 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.006091272789655461</v>
+        <v>0.00578767860988082</v>
       </c>
       <c r="C45">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D45">
-        <v>138</v>
+        <v>7</v>
       </c>
       <c r="E45">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F45">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45">
-        <v>512</v>
+        <v>4</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K45">
         <v>0.003707186904083417</v>
@@ -5191,28 +5191,28 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.006091272789655461</v>
+        <v>0.00578767860988082</v>
       </c>
       <c r="C46">
+        <v>7</v>
+      </c>
+      <c r="D46">
+        <v>7</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46" t="b">
+        <v>0</v>
+      </c>
+      <c r="H46">
         <v>8</v>
       </c>
-      <c r="D46">
-        <v>236</v>
-      </c>
-      <c r="E46">
-        <v>0.97</v>
-      </c>
-      <c r="F46">
-        <v>0.03000000000000003</v>
-      </c>
-      <c r="G46" t="b">
-        <v>1</v>
-      </c>
-      <c r="H46">
-        <v>665</v>
-      </c>
       <c r="J46" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K46">
         <v>0.003707186904083417</v>
@@ -5241,7 +5241,7 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.005697863957067367</v>
+        <v>0.00578767860988082</v>
       </c>
       <c r="C47">
         <v>7</v>
@@ -5259,7 +5259,7 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J47" s="1" t="s">
         <v>249</v>
@@ -5291,7 +5291,7 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.005697863957067367</v>
+        <v>0.00578767860988082</v>
       </c>
       <c r="C48">
         <v>7</v>
@@ -5309,10 +5309,10 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K48">
         <v>0.003659350230218784</v>
@@ -5341,7 +5341,7 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.005697863957067367</v>
+        <v>0.00578767860988082</v>
       </c>
       <c r="C49">
         <v>7</v>
@@ -5359,7 +5359,7 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>142</v>
       </c>
       <c r="J49" s="1" t="s">
         <v>250</v>
@@ -5391,7 +5391,7 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.005697863957067367</v>
+        <v>0.00578767860988082</v>
       </c>
       <c r="C50">
         <v>7</v>
@@ -5409,10 +5409,10 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K50">
         <v>0.003461398788030784</v>
@@ -5441,7 +5441,7 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.005697863957067367</v>
+        <v>0.00578767860988082</v>
       </c>
       <c r="C51">
         <v>7</v>
@@ -5459,10 +5459,10 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>142</v>
+        <v>5</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K51">
         <v>0.003410115970956949</v>
@@ -5491,7 +5491,7 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.005697863957067367</v>
+        <v>0.00578767860988082</v>
       </c>
       <c r="C52">
         <v>7</v>
@@ -5509,10 +5509,10 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K52">
         <v>0.003358050074220206</v>
@@ -5541,7 +5541,7 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.005697863957067367</v>
+        <v>0.00578767860988082</v>
       </c>
       <c r="C53">
         <v>7</v>
@@ -5559,10 +5559,10 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K53">
         <v>0.003358050074220206</v>
@@ -5591,28 +5591,28 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.005697863957067367</v>
+        <v>0.00578767860988082</v>
       </c>
       <c r="C54">
         <v>7</v>
       </c>
       <c r="D54">
-        <v>7</v>
+        <v>123</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F54">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54">
-        <v>3</v>
+        <v>3078</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K54">
         <v>0.003305164090716981</v>
@@ -5641,28 +5641,28 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.005697863957067367</v>
+        <v>0.00578767860988082</v>
       </c>
       <c r="C55">
         <v>7</v>
       </c>
       <c r="D55">
-        <v>7</v>
+        <v>87</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="F55">
-        <v>1</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K55">
         <v>0.003305164090716981</v>
@@ -5691,25 +5691,25 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.005697863957067367</v>
+        <v>0.00578767860988082</v>
       </c>
       <c r="C56">
         <v>7</v>
       </c>
       <c r="D56">
-        <v>123</v>
+        <v>305</v>
       </c>
       <c r="E56">
-        <v>0.9399999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="F56">
-        <v>0.06000000000000005</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G56" t="b">
         <v>1</v>
       </c>
       <c r="H56">
-        <v>3078</v>
+        <v>78</v>
       </c>
       <c r="J56" s="1" t="s">
         <v>251</v>
@@ -5741,25 +5741,25 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.005697863957067367</v>
+        <v>0.00578767860988082</v>
       </c>
       <c r="C57">
         <v>7</v>
       </c>
       <c r="D57">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="E57">
-        <v>0.92</v>
+        <v>0.9</v>
       </c>
       <c r="F57">
-        <v>0.07999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G57" t="b">
         <v>1</v>
       </c>
       <c r="H57">
-        <v>19</v>
+        <v>259</v>
       </c>
       <c r="J57" s="1" t="s">
         <v>252</v>
@@ -5791,28 +5791,28 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.005697863957067367</v>
+        <v>0.005358349188051323</v>
       </c>
       <c r="C58">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D58">
-        <v>305</v>
+        <v>6</v>
       </c>
       <c r="E58">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="F58">
-        <v>0.02000000000000002</v>
+        <v>1</v>
       </c>
       <c r="G58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H58">
-        <v>78</v>
+        <v>1</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K58">
         <v>0.003084565954708007</v>
@@ -5841,28 +5841,28 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.005697863957067367</v>
+        <v>0.005358349188051323</v>
       </c>
       <c r="C59">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D59">
-        <v>68</v>
+        <v>6</v>
       </c>
       <c r="E59">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="F59">
-        <v>0.09999999999999998</v>
+        <v>1</v>
       </c>
       <c r="G59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59">
-        <v>259</v>
+        <v>3</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K59">
         <v>0.003026905432044152</v>
@@ -5891,7 +5891,7 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.005275196977222534</v>
+        <v>0.005358349188051323</v>
       </c>
       <c r="C60">
         <v>6</v>
@@ -5909,10 +5909,10 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K60">
         <v>0.003026905432044152</v>
@@ -5941,7 +5941,7 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.005275196977222534</v>
+        <v>0.005358349188051323</v>
       </c>
       <c r="C61">
         <v>6</v>
@@ -5959,10 +5959,10 @@
         <v>0</v>
       </c>
       <c r="H61">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K61">
         <v>0.003026905432044152</v>
@@ -5991,7 +5991,7 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.005275196977222534</v>
+        <v>0.005358349188051323</v>
       </c>
       <c r="C62">
         <v>6</v>
@@ -6009,10 +6009,10 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K62">
         <v>0.003026905432044152</v>
@@ -6041,28 +6041,28 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.005275196977222534</v>
+        <v>0.005358349188051323</v>
       </c>
       <c r="C63">
         <v>6</v>
       </c>
       <c r="D63">
-        <v>6</v>
+        <v>82</v>
       </c>
       <c r="E63">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="F63">
-        <v>1</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H63">
-        <v>13</v>
+        <v>267</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K63">
         <v>0.002968124973806371</v>
@@ -6091,13 +6091,13 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.005275196977222534</v>
+        <v>0.004891481202142002</v>
       </c>
       <c r="C64">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D64">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -6109,7 +6109,7 @@
         <v>0</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="J64" s="1" t="s">
         <v>253</v>
@@ -6141,25 +6141,25 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.005275196977222534</v>
+        <v>0.004891481202142002</v>
       </c>
       <c r="C65">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D65">
-        <v>82</v>
+        <v>5</v>
       </c>
       <c r="E65">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F65">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H65">
-        <v>267</v>
+        <v>29</v>
       </c>
       <c r="J65" s="1" t="s">
         <v>254</v>
@@ -6191,7 +6191,7 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.004815573966179747</v>
+        <v>0.004891481202142002</v>
       </c>
       <c r="C66">
         <v>5</v>
@@ -6209,10 +6209,10 @@
         <v>0</v>
       </c>
       <c r="H66">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K66">
         <v>0.002846925462902467</v>
@@ -6241,7 +6241,7 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.004815573966179747</v>
+        <v>0.004891481202142002</v>
       </c>
       <c r="C67">
         <v>5</v>
@@ -6259,7 +6259,7 @@
         <v>0</v>
       </c>
       <c r="H67">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J67" s="1" t="s">
         <v>255</v>
@@ -6291,7 +6291,7 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.004815573966179747</v>
+        <v>0.004891481202142002</v>
       </c>
       <c r="C68">
         <v>5</v>
@@ -6309,10 +6309,10 @@
         <v>0</v>
       </c>
       <c r="H68">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K68">
         <v>0.002720331472911303</v>
@@ -6341,7 +6341,7 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.004815573966179747</v>
+        <v>0.004891481202142002</v>
       </c>
       <c r="C69">
         <v>5</v>
@@ -6359,10 +6359,10 @@
         <v>0</v>
       </c>
       <c r="H69">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K69">
         <v>0.002720331472911303</v>
@@ -6391,28 +6391,28 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.004815573966179747</v>
+        <v>0.004891481202142002</v>
       </c>
       <c r="C70">
         <v>5</v>
       </c>
       <c r="D70">
-        <v>5</v>
+        <v>102</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F70">
-        <v>1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H70">
-        <v>35</v>
+        <v>113</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K70">
         <v>0.002720331472911303</v>
@@ -6441,25 +6441,25 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.004815573966179747</v>
+        <v>0.004891481202142002</v>
       </c>
       <c r="C71">
         <v>5</v>
       </c>
       <c r="D71">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F71">
-        <v>1</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H71">
-        <v>4</v>
+        <v>816</v>
       </c>
       <c r="J71" s="1" t="s">
         <v>256</v>
@@ -6491,28 +6491,28 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.004815573966179747</v>
+        <v>0.004891481202142002</v>
       </c>
       <c r="C72">
         <v>5</v>
       </c>
       <c r="D72">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="E72">
-        <v>0.95</v>
+        <v>0.76</v>
       </c>
       <c r="F72">
-        <v>0.05000000000000004</v>
+        <v>0.24</v>
       </c>
       <c r="G72" t="b">
         <v>1</v>
       </c>
       <c r="H72">
-        <v>113</v>
+        <v>947</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K72">
         <v>0.002720331472911303</v>
@@ -6541,28 +6541,28 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.004815573966179747</v>
+        <v>0.004375073791460763</v>
       </c>
       <c r="C73">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D73">
-        <v>51</v>
+        <v>4</v>
       </c>
       <c r="E73">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="F73">
-        <v>0.09999999999999998</v>
+        <v>1</v>
       </c>
       <c r="G73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H73">
-        <v>816</v>
+        <v>3</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K73">
         <v>0.002654771682858332</v>
@@ -6591,28 +6591,28 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.004815573966179747</v>
+        <v>0.004375073791460763</v>
       </c>
       <c r="C74">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D74">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="E74">
-        <v>0.76</v>
+        <v>0</v>
       </c>
       <c r="F74">
-        <v>0.24</v>
+        <v>1</v>
       </c>
       <c r="G74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H74">
-        <v>947</v>
+        <v>22</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K74">
         <v>0.002654771682858332</v>
@@ -6641,7 +6641,7 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.004307180295622475</v>
+        <v>0.004375073791460763</v>
       </c>
       <c r="C75">
         <v>4</v>
@@ -6659,7 +6659,7 @@
         <v>0</v>
       </c>
       <c r="H75">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J75" s="1" t="s">
         <v>257</v>
@@ -6691,28 +6691,28 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.004307180295622475</v>
+        <v>0.004375073791460763</v>
       </c>
       <c r="C76">
         <v>4</v>
       </c>
       <c r="D76">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="E76">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="F76">
-        <v>1</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H76">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K76">
         <v>0.002587551362524257</v>
@@ -6741,25 +6741,25 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.004307180295622475</v>
+        <v>0.004375073791460763</v>
       </c>
       <c r="C77">
         <v>4</v>
       </c>
       <c r="D77">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="E77">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F77">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H77">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="J77" s="1" t="s">
         <v>258</v>
@@ -6791,25 +6791,25 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.004307180295622475</v>
+        <v>0.004375073791460763</v>
       </c>
       <c r="C78">
         <v>4</v>
       </c>
       <c r="D78">
-        <v>50</v>
+        <v>131</v>
       </c>
       <c r="E78">
-        <v>0.92</v>
+        <v>0.97</v>
       </c>
       <c r="F78">
-        <v>0.07999999999999996</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G78" t="b">
         <v>1</v>
       </c>
       <c r="H78">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="J78" s="1" t="s">
         <v>259</v>
@@ -6841,25 +6841,25 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.004307180295622475</v>
+        <v>0.004375073791460763</v>
       </c>
       <c r="C79">
         <v>4</v>
       </c>
       <c r="D79">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="E79">
-        <v>0.9399999999999999</v>
+        <v>0.87</v>
       </c>
       <c r="F79">
-        <v>0.06000000000000005</v>
+        <v>0.13</v>
       </c>
       <c r="G79" t="b">
         <v>1</v>
       </c>
       <c r="H79">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="J79" s="1" t="s">
         <v>260</v>
@@ -6891,25 +6891,25 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.004307180295622475</v>
+        <v>0.004375073791460763</v>
       </c>
       <c r="C80">
         <v>4</v>
       </c>
       <c r="D80">
-        <v>131</v>
+        <v>44</v>
       </c>
       <c r="E80">
-        <v>0.97</v>
+        <v>0.91</v>
       </c>
       <c r="F80">
-        <v>0.03000000000000003</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G80" t="b">
         <v>1</v>
       </c>
       <c r="H80">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="J80" s="1" t="s">
         <v>261</v>
@@ -6941,25 +6941,25 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.004307180295622475</v>
+        <v>0.004375073791460763</v>
       </c>
       <c r="C81">
         <v>4</v>
       </c>
       <c r="D81">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="E81">
-        <v>0.87</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F81">
-        <v>0.13</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G81" t="b">
         <v>1</v>
       </c>
       <c r="H81">
-        <v>67</v>
+        <v>148</v>
       </c>
       <c r="J81" s="1" t="s">
         <v>262</v>
@@ -6991,25 +6991,25 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.004307180295622475</v>
+        <v>0.004375073791460763</v>
       </c>
       <c r="C82">
         <v>4</v>
       </c>
       <c r="D82">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="E82">
-        <v>0.91</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F82">
-        <v>0.08999999999999997</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G82" t="b">
         <v>1</v>
       </c>
       <c r="H82">
-        <v>90</v>
+        <v>22</v>
       </c>
       <c r="J82" s="1" t="s">
         <v>263</v>
@@ -7041,28 +7041,28 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.004307180295622475</v>
+        <v>0.003788925046836521</v>
       </c>
       <c r="C83">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D83">
-        <v>67</v>
+        <v>3</v>
       </c>
       <c r="E83">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F83">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H83">
-        <v>148</v>
+        <v>3</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K83">
         <v>0.002374499979045097</v>
@@ -7091,28 +7091,28 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>0.004307180295622475</v>
+        <v>0.003788925046836521</v>
       </c>
       <c r="C84">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D84">
-        <v>72</v>
+        <v>3</v>
       </c>
       <c r="E84">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F84">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H84">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K84">
         <v>0.002374499979045097</v>
@@ -7141,7 +7141,7 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>0.003730127554688832</v>
+        <v>0.003788925046836521</v>
       </c>
       <c r="C85">
         <v>3</v>
@@ -7159,7 +7159,7 @@
         <v>0</v>
       </c>
       <c r="H85">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="J85" s="1" t="s">
         <v>264</v>
@@ -7191,7 +7191,7 @@
         <v>91</v>
       </c>
       <c r="B86">
-        <v>0.003730127554688832</v>
+        <v>0.003788925046836521</v>
       </c>
       <c r="C86">
         <v>3</v>
@@ -7209,7 +7209,7 @@
         <v>0</v>
       </c>
       <c r="H86">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J86" s="1" t="s">
         <v>265</v>
@@ -7241,7 +7241,7 @@
         <v>92</v>
       </c>
       <c r="B87">
-        <v>0.003730127554688832</v>
+        <v>0.003788925046836521</v>
       </c>
       <c r="C87">
         <v>3</v>
@@ -7259,7 +7259,7 @@
         <v>0</v>
       </c>
       <c r="H87">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="J87" s="1" t="s">
         <v>266</v>
@@ -7291,7 +7291,7 @@
         <v>93</v>
       </c>
       <c r="B88">
-        <v>0.003730127554688832</v>
+        <v>0.003788925046836521</v>
       </c>
       <c r="C88">
         <v>3</v>
@@ -7309,10 +7309,10 @@
         <v>0</v>
       </c>
       <c r="H88">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K88">
         <v>0.002299099718602881</v>
@@ -7341,7 +7341,7 @@
         <v>94</v>
       </c>
       <c r="B89">
-        <v>0.003730127554688832</v>
+        <v>0.003788925046836521</v>
       </c>
       <c r="C89">
         <v>3</v>
@@ -7359,10 +7359,10 @@
         <v>0</v>
       </c>
       <c r="H89">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K89">
         <v>0.002299099718602881</v>
@@ -7391,7 +7391,7 @@
         <v>95</v>
       </c>
       <c r="B90">
-        <v>0.003730127554688832</v>
+        <v>0.003788925046836521</v>
       </c>
       <c r="C90">
         <v>3</v>
@@ -7409,7 +7409,7 @@
         <v>0</v>
       </c>
       <c r="H90">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J90" s="1" t="s">
         <v>267</v>
@@ -7441,7 +7441,7 @@
         <v>96</v>
       </c>
       <c r="B91">
-        <v>0.003730127554688832</v>
+        <v>0.003788925046836521</v>
       </c>
       <c r="C91">
         <v>3</v>
@@ -7459,7 +7459,7 @@
         <v>0</v>
       </c>
       <c r="H91">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="J91" s="1" t="s">
         <v>268</v>
@@ -7491,25 +7491,25 @@
         <v>97</v>
       </c>
       <c r="B92">
-        <v>0.003730127554688832</v>
+        <v>0.003788925046836521</v>
       </c>
       <c r="C92">
         <v>3</v>
       </c>
       <c r="D92">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E92">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="F92">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="G92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H92">
-        <v>5</v>
+        <v>98</v>
       </c>
       <c r="J92" s="1" t="s">
         <v>269</v>
@@ -7541,28 +7541,28 @@
         <v>98</v>
       </c>
       <c r="B93">
-        <v>0.003730127554688832</v>
+        <v>0.003788925046836521</v>
       </c>
       <c r="C93">
         <v>3</v>
       </c>
       <c r="D93">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="E93">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="F93">
-        <v>1</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H93">
-        <v>20</v>
+        <v>95</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K93">
         <v>0.002221141346622164</v>
@@ -7591,25 +7591,25 @@
         <v>99</v>
       </c>
       <c r="B94">
-        <v>0.003730127554688832</v>
+        <v>0.003788925046836521</v>
       </c>
       <c r="C94">
         <v>3</v>
       </c>
       <c r="D94">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="E94">
-        <v>0.7</v>
+        <v>0.92</v>
       </c>
       <c r="F94">
-        <v>0.3</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G94" t="b">
         <v>1</v>
       </c>
       <c r="H94">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="J94" s="1" t="s">
         <v>270</v>
@@ -7641,25 +7641,25 @@
         <v>100</v>
       </c>
       <c r="B95">
-        <v>0.003730127554688832</v>
+        <v>0.003788925046836521</v>
       </c>
       <c r="C95">
         <v>3</v>
       </c>
       <c r="D95">
-        <v>42</v>
+        <v>99</v>
       </c>
       <c r="E95">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="F95">
-        <v>0.06999999999999995</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G95" t="b">
         <v>1</v>
       </c>
       <c r="H95">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="J95" s="1" t="s">
         <v>271</v>
@@ -7691,25 +7691,25 @@
         <v>101</v>
       </c>
       <c r="B96">
-        <v>0.003730127554688832</v>
+        <v>0.003788925046836521</v>
       </c>
       <c r="C96">
         <v>3</v>
       </c>
       <c r="D96">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="E96">
-        <v>0.92</v>
+        <v>0.7</v>
       </c>
       <c r="F96">
-        <v>0.07999999999999996</v>
+        <v>0.3</v>
       </c>
       <c r="G96" t="b">
         <v>1</v>
       </c>
       <c r="H96">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="J96" s="1" t="s">
         <v>272</v>
@@ -7741,25 +7741,25 @@
         <v>102</v>
       </c>
       <c r="B97">
-        <v>0.003730127554688832</v>
+        <v>0.003788925046836521</v>
       </c>
       <c r="C97">
         <v>3</v>
       </c>
       <c r="D97">
-        <v>99</v>
+        <v>35</v>
       </c>
       <c r="E97">
-        <v>0.97</v>
+        <v>0.91</v>
       </c>
       <c r="F97">
-        <v>0.03000000000000003</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G97" t="b">
         <v>1</v>
       </c>
       <c r="H97">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="J97" s="1" t="s">
         <v>273</v>
@@ -7791,25 +7791,25 @@
         <v>103</v>
       </c>
       <c r="B98">
-        <v>0.003730127554688832</v>
+        <v>0.003788925046836521</v>
       </c>
       <c r="C98">
         <v>3</v>
       </c>
       <c r="D98">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="E98">
-        <v>0.7</v>
+        <v>0.93</v>
       </c>
       <c r="F98">
-        <v>0.3</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G98" t="b">
         <v>1</v>
       </c>
       <c r="H98">
-        <v>72</v>
+        <v>1115</v>
       </c>
       <c r="J98" s="1" t="s">
         <v>274</v>
@@ -7841,28 +7841,28 @@
         <v>104</v>
       </c>
       <c r="B99">
-        <v>0.003730127554688832</v>
+        <v>0.003788925046836521</v>
       </c>
       <c r="C99">
         <v>3</v>
       </c>
       <c r="D99">
-        <v>35</v>
+        <v>111</v>
       </c>
       <c r="E99">
-        <v>0.91</v>
+        <v>0.97</v>
       </c>
       <c r="F99">
-        <v>0.08999999999999997</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G99" t="b">
         <v>1</v>
       </c>
       <c r="H99">
-        <v>98</v>
+        <v>9</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K99">
         <v>0.002056377303138671</v>
@@ -7891,28 +7891,28 @@
         <v>105</v>
       </c>
       <c r="B100">
-        <v>0.003730127554688832</v>
+        <v>0.003093644346133444</v>
       </c>
       <c r="C100">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D100">
-        <v>46</v>
+        <v>2</v>
       </c>
       <c r="E100">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F100">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H100">
-        <v>1115</v>
+        <v>250</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K100">
         <v>0.002056377303138671</v>
@@ -7941,25 +7941,25 @@
         <v>106</v>
       </c>
       <c r="B101">
-        <v>0.003730127554688832</v>
+        <v>0.003093644346133444</v>
       </c>
       <c r="C101">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D101">
-        <v>111</v>
+        <v>2</v>
       </c>
       <c r="E101">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F101">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H101">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J101" s="1" t="s">
         <v>275</v>
@@ -7991,7 +7991,7 @@
         <v>107</v>
       </c>
       <c r="B102">
-        <v>0.00304563639482773</v>
+        <v>0.003093644346133444</v>
       </c>
       <c r="C102">
         <v>2</v>
@@ -8009,7 +8009,7 @@
         <v>0</v>
       </c>
       <c r="H102">
-        <v>250</v>
+        <v>4</v>
       </c>
       <c r="J102" s="1" t="s">
         <v>276</v>
@@ -8041,7 +8041,7 @@
         <v>108</v>
       </c>
       <c r="B103">
-        <v>0.00304563639482773</v>
+        <v>0.003093644346133444</v>
       </c>
       <c r="C103">
         <v>2</v>
@@ -8059,7 +8059,7 @@
         <v>0</v>
       </c>
       <c r="H103">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J103" s="1" t="s">
         <v>277</v>
@@ -8091,7 +8091,7 @@
         <v>109</v>
       </c>
       <c r="B104">
-        <v>0.00304563639482773</v>
+        <v>0.003093644346133444</v>
       </c>
       <c r="C104">
         <v>2</v>
@@ -8109,7 +8109,7 @@
         <v>0</v>
       </c>
       <c r="H104">
-        <v>4</v>
+        <v>187</v>
       </c>
       <c r="J104" s="1" t="s">
         <v>278</v>
@@ -8141,7 +8141,7 @@
         <v>110</v>
       </c>
       <c r="B105">
-        <v>0.00304563639482773</v>
+        <v>0.003093644346133444</v>
       </c>
       <c r="C105">
         <v>2</v>
@@ -8159,7 +8159,7 @@
         <v>0</v>
       </c>
       <c r="H105">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J105" s="1" t="s">
         <v>279</v>
@@ -8191,7 +8191,7 @@
         <v>111</v>
       </c>
       <c r="B106">
-        <v>0.00304563639482773</v>
+        <v>0.003093644346133444</v>
       </c>
       <c r="C106">
         <v>2</v>
@@ -8209,10 +8209,10 @@
         <v>0</v>
       </c>
       <c r="H106">
-        <v>187</v>
+        <v>11</v>
       </c>
       <c r="J106" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K106">
         <v>0.002056377303138671</v>
@@ -8241,7 +8241,7 @@
         <v>112</v>
       </c>
       <c r="B107">
-        <v>0.00304563639482773</v>
+        <v>0.003093644346133444</v>
       </c>
       <c r="C107">
         <v>2</v>
@@ -8259,7 +8259,7 @@
         <v>0</v>
       </c>
       <c r="H107">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="J107" s="1" t="s">
         <v>280</v>
@@ -8291,7 +8291,7 @@
         <v>113</v>
       </c>
       <c r="B108">
-        <v>0.00304563639482773</v>
+        <v>0.003093644346133444</v>
       </c>
       <c r="C108">
         <v>2</v>
@@ -8309,10 +8309,10 @@
         <v>0</v>
       </c>
       <c r="H108">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="J108" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K108">
         <v>0.001968831373799836</v>
@@ -8341,7 +8341,7 @@
         <v>114</v>
       </c>
       <c r="B109">
-        <v>0.00304563639482773</v>
+        <v>0.003093644346133444</v>
       </c>
       <c r="C109">
         <v>2</v>
@@ -8359,10 +8359,10 @@
         <v>0</v>
       </c>
       <c r="H109">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="J109" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K109">
         <v>0.001968831373799836</v>
@@ -8391,7 +8391,7 @@
         <v>115</v>
       </c>
       <c r="B110">
-        <v>0.00304563639482773</v>
+        <v>0.003093644346133444</v>
       </c>
       <c r="C110">
         <v>2</v>
@@ -8409,10 +8409,10 @@
         <v>0</v>
       </c>
       <c r="H110">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K110">
         <v>0.001968831373799836</v>
@@ -8441,7 +8441,7 @@
         <v>116</v>
       </c>
       <c r="B111">
-        <v>0.00304563639482773</v>
+        <v>0.003093644346133444</v>
       </c>
       <c r="C111">
         <v>2</v>
@@ -8459,7 +8459,7 @@
         <v>0</v>
       </c>
       <c r="H111">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="J111" s="1" t="s">
         <v>281</v>
@@ -8491,25 +8491,25 @@
         <v>117</v>
       </c>
       <c r="B112">
-        <v>0.00304563639482773</v>
+        <v>0.003093644346133444</v>
       </c>
       <c r="C112">
         <v>2</v>
       </c>
       <c r="D112">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E112">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="F112">
-        <v>1</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="G112" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H112">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J112" s="1" t="s">
         <v>282</v>
@@ -8541,28 +8541,28 @@
         <v>118</v>
       </c>
       <c r="B113">
-        <v>0.00304563639482773</v>
+        <v>0.003093644346133444</v>
       </c>
       <c r="C113">
         <v>2</v>
       </c>
       <c r="D113">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E113">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="F113">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="G113" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H113">
-        <v>38</v>
+        <v>215</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K113">
         <v>0.001968831373799836</v>
@@ -8591,25 +8591,25 @@
         <v>119</v>
       </c>
       <c r="B114">
-        <v>0.00304563639482773</v>
+        <v>0.003093644346133444</v>
       </c>
       <c r="C114">
         <v>2</v>
       </c>
       <c r="D114">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E114">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="F114">
-        <v>0.6699999999999999</v>
+        <v>1</v>
       </c>
       <c r="G114" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H114">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J114" s="1" t="s">
         <v>283</v>
@@ -8641,25 +8641,25 @@
         <v>120</v>
       </c>
       <c r="B115">
-        <v>0.00304563639482773</v>
+        <v>0.003093644346133444</v>
       </c>
       <c r="C115">
         <v>2</v>
       </c>
       <c r="D115">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E115">
-        <v>0.83</v>
+        <v>0.75</v>
       </c>
       <c r="F115">
-        <v>0.17</v>
+        <v>0.25</v>
       </c>
       <c r="G115" t="b">
         <v>1</v>
       </c>
       <c r="H115">
-        <v>215</v>
+        <v>19</v>
       </c>
       <c r="J115" s="1" t="s">
         <v>284</v>
@@ -8691,28 +8691,28 @@
         <v>121</v>
       </c>
       <c r="B116">
-        <v>0.00304563639482773</v>
+        <v>0.003093644346133444</v>
       </c>
       <c r="C116">
         <v>2</v>
       </c>
       <c r="D116">
-        <v>2</v>
+        <v>62</v>
       </c>
       <c r="E116">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F116">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G116" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H116">
-        <v>6</v>
+        <v>97</v>
       </c>
       <c r="J116" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K116">
         <v>0.001968831373799836</v>
@@ -8741,28 +8741,28 @@
         <v>122</v>
       </c>
       <c r="B117">
-        <v>0.00304563639482773</v>
+        <v>0.003093644346133444</v>
       </c>
       <c r="C117">
         <v>2</v>
       </c>
       <c r="D117">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="E117">
-        <v>0.75</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F117">
-        <v>0.25</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G117" t="b">
         <v>1</v>
       </c>
       <c r="H117">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="J117" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K117">
         <v>0.001968831373799836</v>
@@ -8791,25 +8791,25 @@
         <v>123</v>
       </c>
       <c r="B118">
-        <v>0.00304563639482773</v>
+        <v>0.003093644346133444</v>
       </c>
       <c r="C118">
         <v>2</v>
       </c>
       <c r="D118">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="E118">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="F118">
-        <v>0.03000000000000003</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G118" t="b">
         <v>1</v>
       </c>
       <c r="H118">
-        <v>97</v>
+        <v>470</v>
       </c>
       <c r="J118" s="1" t="s">
         <v>285</v>
@@ -8841,28 +8841,28 @@
         <v>124</v>
       </c>
       <c r="B119">
-        <v>0.00304563639482773</v>
+        <v>0.003093644346133444</v>
       </c>
       <c r="C119">
         <v>2</v>
       </c>
       <c r="D119">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E119">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="F119">
-        <v>0.06000000000000005</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G119" t="b">
         <v>1</v>
       </c>
       <c r="H119">
-        <v>32</v>
+        <v>91</v>
       </c>
       <c r="J119" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K119">
         <v>0.001877207059451149</v>
@@ -8891,25 +8891,25 @@
         <v>125</v>
       </c>
       <c r="B120">
-        <v>0.00304563639482773</v>
+        <v>0.003093644346133444</v>
       </c>
       <c r="C120">
         <v>2</v>
       </c>
       <c r="D120">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="E120">
-        <v>0.98</v>
+        <v>0.83</v>
       </c>
       <c r="F120">
-        <v>0.02000000000000002</v>
+        <v>0.17</v>
       </c>
       <c r="G120" t="b">
         <v>1</v>
       </c>
       <c r="H120">
-        <v>470</v>
+        <v>22</v>
       </c>
       <c r="J120" s="1" t="s">
         <v>286</v>
@@ -8941,25 +8941,25 @@
         <v>126</v>
       </c>
       <c r="B121">
-        <v>0.00304563639482773</v>
+        <v>0.003093644346133444</v>
       </c>
       <c r="C121">
         <v>2</v>
       </c>
       <c r="D121">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="E121">
-        <v>0.95</v>
+        <v>0.71</v>
       </c>
       <c r="F121">
-        <v>0.05000000000000004</v>
+        <v>0.29</v>
       </c>
       <c r="G121" t="b">
         <v>1</v>
       </c>
       <c r="H121">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="J121" s="1" t="s">
         <v>287</v>
@@ -8991,28 +8991,28 @@
         <v>127</v>
       </c>
       <c r="B122">
-        <v>0.00304563639482773</v>
+        <v>0.003093644346133444</v>
       </c>
       <c r="C122">
         <v>2</v>
       </c>
       <c r="D122">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E122">
-        <v>0.83</v>
+        <v>0.91</v>
       </c>
       <c r="F122">
-        <v>0.17</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G122" t="b">
         <v>1</v>
       </c>
       <c r="H122">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="J122" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K122">
         <v>0.001877207059451149</v>
@@ -9041,28 +9041,28 @@
         <v>128</v>
       </c>
       <c r="B123">
-        <v>0.00304563639482773</v>
+        <v>0.003093644346133444</v>
       </c>
       <c r="C123">
         <v>2</v>
       </c>
       <c r="D123">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E123">
-        <v>0.71</v>
+        <v>0.78</v>
       </c>
       <c r="F123">
-        <v>0.29</v>
+        <v>0.22</v>
       </c>
       <c r="G123" t="b">
         <v>1</v>
       </c>
       <c r="H123">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="J123" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K123">
         <v>0.001877207059451149</v>
@@ -9091,25 +9091,25 @@
         <v>129</v>
       </c>
       <c r="B124">
-        <v>0.00304563639482773</v>
+        <v>0.003093644346133444</v>
       </c>
       <c r="C124">
         <v>2</v>
       </c>
       <c r="D124">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="E124">
-        <v>0.91</v>
+        <v>0.96</v>
       </c>
       <c r="F124">
-        <v>0.08999999999999997</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G124" t="b">
         <v>1</v>
       </c>
       <c r="H124">
-        <v>90</v>
+        <v>46</v>
       </c>
       <c r="J124" s="1" t="s">
         <v>288</v>
@@ -9141,28 +9141,28 @@
         <v>130</v>
       </c>
       <c r="B125">
-        <v>0.00304563639482773</v>
+        <v>0.003093644346133444</v>
       </c>
       <c r="C125">
         <v>2</v>
       </c>
       <c r="D125">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="E125">
-        <v>0.78</v>
+        <v>0.91</v>
       </c>
       <c r="F125">
-        <v>0.22</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G125" t="b">
         <v>1</v>
       </c>
       <c r="H125">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="J125" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K125">
         <v>0.001877207059451149</v>
@@ -9191,28 +9191,28 @@
         <v>131</v>
       </c>
       <c r="B126">
-        <v>0.00304563639482773</v>
+        <v>0.003093644346133444</v>
       </c>
       <c r="C126">
         <v>2</v>
       </c>
       <c r="D126">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="E126">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="F126">
-        <v>0.04000000000000004</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G126" t="b">
         <v>1</v>
       </c>
       <c r="H126">
-        <v>46</v>
+        <v>226</v>
       </c>
       <c r="J126" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K126">
         <v>0.001780874984283823</v>
@@ -9241,25 +9241,25 @@
         <v>132</v>
       </c>
       <c r="B127">
-        <v>0.00304563639482773</v>
+        <v>0.003093644346133444</v>
       </c>
       <c r="C127">
         <v>2</v>
       </c>
       <c r="D127">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="E127">
-        <v>0.91</v>
+        <v>0.97</v>
       </c>
       <c r="F127">
-        <v>0.08999999999999997</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G127" t="b">
         <v>1</v>
       </c>
       <c r="H127">
-        <v>34</v>
+        <v>92</v>
       </c>
       <c r="J127" s="1" t="s">
         <v>289</v>
@@ -9291,25 +9291,25 @@
         <v>133</v>
       </c>
       <c r="B128">
-        <v>0.00304563639482773</v>
+        <v>0.003093644346133444</v>
       </c>
       <c r="C128">
         <v>2</v>
       </c>
       <c r="D128">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="E128">
-        <v>0.95</v>
+        <v>0.85</v>
       </c>
       <c r="F128">
-        <v>0.05000000000000004</v>
+        <v>0.15</v>
       </c>
       <c r="G128" t="b">
         <v>1</v>
       </c>
       <c r="H128">
-        <v>226</v>
+        <v>96</v>
       </c>
       <c r="J128" s="1" t="s">
         <v>290</v>
@@ -9341,25 +9341,25 @@
         <v>134</v>
       </c>
       <c r="B129">
-        <v>0.00304563639482773</v>
+        <v>0.003093644346133444</v>
       </c>
       <c r="C129">
         <v>2</v>
       </c>
       <c r="D129">
-        <v>71</v>
+        <v>204</v>
       </c>
       <c r="E129">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="F129">
-        <v>0.03000000000000003</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G129" t="b">
         <v>1</v>
       </c>
       <c r="H129">
-        <v>92</v>
+        <v>282</v>
       </c>
       <c r="J129" s="1" t="s">
         <v>291</v>
@@ -9391,25 +9391,25 @@
         <v>135</v>
       </c>
       <c r="B130">
-        <v>0.00304563639482773</v>
+        <v>0.003093644346133444</v>
       </c>
       <c r="C130">
         <v>2</v>
       </c>
       <c r="D130">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="E130">
-        <v>0.85</v>
+        <v>0.93</v>
       </c>
       <c r="F130">
-        <v>0.15</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G130" t="b">
         <v>1</v>
       </c>
       <c r="H130">
-        <v>96</v>
+        <v>157</v>
       </c>
       <c r="J130" s="1" t="s">
         <v>292</v>
@@ -9441,25 +9441,25 @@
         <v>136</v>
       </c>
       <c r="B131">
-        <v>0.00304563639482773</v>
+        <v>0.003093644346133444</v>
       </c>
       <c r="C131">
         <v>2</v>
       </c>
       <c r="D131">
-        <v>204</v>
+        <v>27</v>
       </c>
       <c r="E131">
-        <v>0.99</v>
+        <v>0.93</v>
       </c>
       <c r="F131">
-        <v>0.01000000000000001</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G131" t="b">
         <v>1</v>
       </c>
       <c r="H131">
-        <v>282</v>
+        <v>210</v>
       </c>
       <c r="J131" s="1" t="s">
         <v>293</v>
@@ -9491,28 +9491,28 @@
         <v>137</v>
       </c>
       <c r="B132">
-        <v>0.00304563639482773</v>
+        <v>0.003093644346133444</v>
       </c>
       <c r="C132">
         <v>2</v>
       </c>
       <c r="D132">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="E132">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="F132">
-        <v>0.06999999999999995</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G132" t="b">
         <v>1</v>
       </c>
       <c r="H132">
-        <v>157</v>
+        <v>12</v>
       </c>
       <c r="J132" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K132">
         <v>0.001780874984283823</v>
@@ -9541,25 +9541,25 @@
         <v>138</v>
       </c>
       <c r="B133">
-        <v>0.00304563639482773</v>
+        <v>0.003093644346133444</v>
       </c>
       <c r="C133">
         <v>2</v>
       </c>
       <c r="D133">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E133">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
       <c r="F133">
-        <v>0.06999999999999995</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G133" t="b">
         <v>1</v>
       </c>
       <c r="H133">
-        <v>210</v>
+        <v>56</v>
       </c>
       <c r="J133" s="1" t="s">
         <v>294</v>
@@ -9591,25 +9591,25 @@
         <v>139</v>
       </c>
       <c r="B134">
-        <v>0.00304563639482773</v>
+        <v>0.003093644346133444</v>
       </c>
       <c r="C134">
         <v>2</v>
       </c>
       <c r="D134">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="E134">
-        <v>0.97</v>
+        <v>0.85</v>
       </c>
       <c r="F134">
-        <v>0.03000000000000003</v>
+        <v>0.15</v>
       </c>
       <c r="G134" t="b">
         <v>1</v>
       </c>
       <c r="H134">
-        <v>12</v>
+        <v>532</v>
       </c>
       <c r="J134" s="1" t="s">
         <v>295</v>
@@ -9641,25 +9641,25 @@
         <v>140</v>
       </c>
       <c r="B135">
-        <v>0.00304563639482773</v>
+        <v>0.003093644346133444</v>
       </c>
       <c r="C135">
         <v>2</v>
       </c>
       <c r="D135">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E135">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="F135">
-        <v>0.08999999999999997</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G135" t="b">
         <v>1</v>
       </c>
       <c r="H135">
-        <v>56</v>
+        <v>98</v>
       </c>
       <c r="J135" s="1" t="s">
         <v>296</v>
@@ -9691,25 +9691,25 @@
         <v>141</v>
       </c>
       <c r="B136">
-        <v>0.00304563639482773</v>
+        <v>0.003093644346133444</v>
       </c>
       <c r="C136">
         <v>2</v>
       </c>
       <c r="D136">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="E136">
-        <v>0.85</v>
+        <v>0</v>
       </c>
       <c r="F136">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="G136" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H136">
-        <v>532</v>
+        <v>18</v>
       </c>
       <c r="J136" s="1" t="s">
         <v>297</v>
@@ -9741,25 +9741,25 @@
         <v>142</v>
       </c>
       <c r="B137">
-        <v>0.00304563639482773</v>
+        <v>0.002187536895730381</v>
       </c>
       <c r="C137">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D137">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="E137">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="F137">
-        <v>0.09999999999999998</v>
+        <v>1</v>
       </c>
       <c r="G137" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H137">
-        <v>98</v>
+        <v>25</v>
       </c>
       <c r="J137" s="1" t="s">
         <v>298</v>
@@ -9791,13 +9791,13 @@
         <v>143</v>
       </c>
       <c r="B138">
-        <v>0.00304563639482773</v>
+        <v>0.002187536895730381</v>
       </c>
       <c r="C138">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D138">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E138">
         <v>0</v>
@@ -9812,7 +9812,7 @@
         <v>18</v>
       </c>
       <c r="J138" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K138">
         <v>0.001679025037110103</v>
@@ -9841,7 +9841,7 @@
         <v>144</v>
       </c>
       <c r="B139">
-        <v>0.002153590147811238</v>
+        <v>0.002187536895730381</v>
       </c>
       <c r="C139">
         <v>1</v>
@@ -9859,7 +9859,7 @@
         <v>0</v>
       </c>
       <c r="H139">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="J139" s="1" t="s">
         <v>299</v>
@@ -9891,7 +9891,7 @@
         <v>145</v>
       </c>
       <c r="B140">
-        <v>0.002153590147811238</v>
+        <v>0.002187536895730381</v>
       </c>
       <c r="C140">
         <v>1</v>
@@ -9909,7 +9909,7 @@
         <v>0</v>
       </c>
       <c r="H140">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="J140" s="1" t="s">
         <v>300</v>
@@ -9941,7 +9941,7 @@
         <v>146</v>
       </c>
       <c r="B141">
-        <v>0.002153590147811238</v>
+        <v>0.002187536895730381</v>
       </c>
       <c r="C141">
         <v>1</v>
@@ -9959,7 +9959,7 @@
         <v>0</v>
       </c>
       <c r="H141">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J141" s="1" t="s">
         <v>301</v>
@@ -9991,7 +9991,7 @@
         <v>147</v>
       </c>
       <c r="B142">
-        <v>0.002153590147811238</v>
+        <v>0.002187536895730381</v>
       </c>
       <c r="C142">
         <v>1</v>
@@ -10009,7 +10009,7 @@
         <v>0</v>
       </c>
       <c r="H142">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="J142" s="1" t="s">
         <v>302</v>
@@ -10041,7 +10041,7 @@
         <v>148</v>
       </c>
       <c r="B143">
-        <v>0.002153590147811238</v>
+        <v>0.002187536895730381</v>
       </c>
       <c r="C143">
         <v>1</v>
@@ -10059,7 +10059,7 @@
         <v>0</v>
       </c>
       <c r="H143">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="J143" s="1" t="s">
         <v>303</v>
@@ -10091,7 +10091,7 @@
         <v>149</v>
       </c>
       <c r="B144">
-        <v>0.002153590147811238</v>
+        <v>0.002187536895730381</v>
       </c>
       <c r="C144">
         <v>1</v>
@@ -10109,10 +10109,10 @@
         <v>0</v>
       </c>
       <c r="H144">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J144" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K144">
         <v>0.001570584108170352</v>
@@ -10141,7 +10141,7 @@
         <v>150</v>
       </c>
       <c r="B145">
-        <v>0.002153590147811238</v>
+        <v>0.002187536895730381</v>
       </c>
       <c r="C145">
         <v>1</v>
@@ -10159,10 +10159,10 @@
         <v>0</v>
       </c>
       <c r="H145">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="J145" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K145">
         <v>0.001570584108170352</v>
@@ -10191,7 +10191,7 @@
         <v>151</v>
       </c>
       <c r="B146">
-        <v>0.002153590147811238</v>
+        <v>0.002187536895730381</v>
       </c>
       <c r="C146">
         <v>1</v>
@@ -10209,7 +10209,7 @@
         <v>0</v>
       </c>
       <c r="H146">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="J146" s="1" t="s">
         <v>304</v>
@@ -10241,25 +10241,25 @@
         <v>152</v>
       </c>
       <c r="B147">
-        <v>0.002153590147811238</v>
+        <v>0.002187536895730381</v>
       </c>
       <c r="C147">
         <v>1</v>
       </c>
       <c r="D147">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E147">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F147">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G147" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H147">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="J147" s="1" t="s">
         <v>305</v>
@@ -10291,28 +10291,28 @@
         <v>153</v>
       </c>
       <c r="B148">
-        <v>0.002153590147811238</v>
+        <v>0.002187536895730381</v>
       </c>
       <c r="C148">
         <v>1</v>
       </c>
       <c r="D148">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E148">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F148">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G148" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H148">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J148" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K148">
         <v>0.001570584108170352</v>
@@ -10341,25 +10341,25 @@
         <v>154</v>
       </c>
       <c r="B149">
-        <v>0.002153590147811238</v>
+        <v>0.002187536895730381</v>
       </c>
       <c r="C149">
         <v>1</v>
       </c>
       <c r="D149">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E149">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F149">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G149" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H149">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="J149" s="1" t="s">
         <v>306</v>
@@ -10391,25 +10391,25 @@
         <v>155</v>
       </c>
       <c r="B150">
-        <v>0.002153590147811238</v>
+        <v>0.002187536895730381</v>
       </c>
       <c r="C150">
         <v>1</v>
       </c>
       <c r="D150">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E150">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="F150">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G150" t="b">
         <v>1</v>
       </c>
       <c r="H150">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J150" s="1" t="s">
         <v>307</v>
@@ -10441,28 +10441,28 @@
         <v>156</v>
       </c>
       <c r="B151">
-        <v>0.002153590147811238</v>
+        <v>0.002187536895730381</v>
       </c>
       <c r="C151">
         <v>1</v>
       </c>
       <c r="D151">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E151">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F151">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G151" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H151">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="J151" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K151">
         <v>0.001570584108170352</v>
@@ -10491,25 +10491,25 @@
         <v>157</v>
       </c>
       <c r="B152">
-        <v>0.002153590147811238</v>
+        <v>0.002187536895730381</v>
       </c>
       <c r="C152">
         <v>1</v>
       </c>
       <c r="D152">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E152">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="F152">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G152" t="b">
         <v>1</v>
       </c>
       <c r="H152">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="J152" s="1" t="s">
         <v>308</v>
@@ -10541,28 +10541,28 @@
         <v>158</v>
       </c>
       <c r="B153">
-        <v>0.002153590147811238</v>
+        <v>0.002187536895730381</v>
       </c>
       <c r="C153">
         <v>1</v>
       </c>
       <c r="D153">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E153">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="F153">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="G153" t="b">
         <v>1</v>
       </c>
       <c r="H153">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="J153" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K153">
         <v>0.001570584108170352</v>
@@ -10591,25 +10591,25 @@
         <v>159</v>
       </c>
       <c r="B154">
-        <v>0.002153590147811238</v>
+        <v>0.002187536895730381</v>
       </c>
       <c r="C154">
         <v>1</v>
       </c>
       <c r="D154">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E154">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F154">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G154" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H154">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J154" s="1" t="s">
         <v>309</v>
@@ -10641,25 +10641,25 @@
         <v>160</v>
       </c>
       <c r="B155">
-        <v>0.002153590147811238</v>
+        <v>0.002187536895730381</v>
       </c>
       <c r="C155">
         <v>1</v>
       </c>
       <c r="D155">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E155">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="F155">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="G155" t="b">
         <v>1</v>
       </c>
       <c r="H155">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J155" s="1" t="s">
         <v>310</v>
@@ -10691,28 +10691,28 @@
         <v>161</v>
       </c>
       <c r="B156">
-        <v>0.002153590147811238</v>
+        <v>0.002187536895730381</v>
       </c>
       <c r="C156">
         <v>1</v>
       </c>
       <c r="D156">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E156">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F156">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G156" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H156">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="J156" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K156">
         <v>0.001570584108170352</v>
@@ -10741,22 +10741,22 @@
         <v>162</v>
       </c>
       <c r="B157">
-        <v>0.002153590147811238</v>
+        <v>0.002187536895730381</v>
       </c>
       <c r="C157">
         <v>1</v>
       </c>
       <c r="D157">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E157">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F157">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G157" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H157">
         <v>13</v>
@@ -10791,28 +10791,28 @@
         <v>163</v>
       </c>
       <c r="B158">
-        <v>0.002153590147811238</v>
+        <v>0.002187536895730381</v>
       </c>
       <c r="C158">
         <v>1</v>
       </c>
       <c r="D158">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E158">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F158">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G158" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H158">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="J158" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K158">
         <v>0.001454078335727459</v>
@@ -10841,25 +10841,25 @@
         <v>164</v>
       </c>
       <c r="B159">
-        <v>0.002153590147811238</v>
+        <v>0.002187536895730381</v>
       </c>
       <c r="C159">
         <v>1</v>
       </c>
       <c r="D159">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E159">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F159">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G159" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H159">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="J159" s="1" t="s">
         <v>312</v>
@@ -10891,25 +10891,25 @@
         <v>165</v>
       </c>
       <c r="B160">
-        <v>0.002153590147811238</v>
+        <v>0.002187536895730381</v>
       </c>
       <c r="C160">
         <v>1</v>
       </c>
       <c r="D160">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E160">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F160">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G160" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H160">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J160" s="1" t="s">
         <v>313</v>
@@ -10941,28 +10941,28 @@
         <v>166</v>
       </c>
       <c r="B161">
-        <v>0.002153590147811238</v>
+        <v>0.002187536895730381</v>
       </c>
       <c r="C161">
         <v>1</v>
       </c>
       <c r="D161">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E161">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="F161">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="G161" t="b">
         <v>1</v>
       </c>
       <c r="H161">
-        <v>3</v>
+        <v>289</v>
       </c>
       <c r="J161" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K161">
         <v>0.001454078335727459</v>
@@ -10991,25 +10991,25 @@
         <v>167</v>
       </c>
       <c r="B162">
-        <v>0.002153590147811238</v>
+        <v>0.002187536895730381</v>
       </c>
       <c r="C162">
         <v>1</v>
       </c>
       <c r="D162">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E162">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="F162">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G162" t="b">
         <v>1</v>
       </c>
       <c r="H162">
-        <v>9</v>
+        <v>104</v>
       </c>
       <c r="J162" s="1" t="s">
         <v>314</v>
@@ -11041,25 +11041,25 @@
         <v>168</v>
       </c>
       <c r="B163">
-        <v>0.002153590147811238</v>
+        <v>0.002187536895730381</v>
       </c>
       <c r="C163">
         <v>1</v>
       </c>
       <c r="D163">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E163">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="F163">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G163" t="b">
         <v>1</v>
       </c>
       <c r="H163">
-        <v>289</v>
+        <v>57</v>
       </c>
       <c r="J163" s="1" t="s">
         <v>315</v>
@@ -11091,25 +11091,25 @@
         <v>169</v>
       </c>
       <c r="B164">
-        <v>0.002153590147811238</v>
+        <v>0.002187536895730381</v>
       </c>
       <c r="C164">
         <v>1</v>
       </c>
       <c r="D164">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E164">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F164">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G164" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H164">
-        <v>104</v>
+        <v>5</v>
       </c>
       <c r="J164" s="1" t="s">
         <v>316</v>
@@ -11141,25 +11141,25 @@
         <v>170</v>
       </c>
       <c r="B165">
-        <v>0.002153590147811238</v>
+        <v>0.002187536895730381</v>
       </c>
       <c r="C165">
         <v>1</v>
       </c>
       <c r="D165">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="E165">
-        <v>0.5</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F165">
-        <v>0.5</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G165" t="b">
         <v>1</v>
       </c>
       <c r="H165">
-        <v>57</v>
+        <v>122</v>
       </c>
       <c r="J165" s="1" t="s">
         <v>317</v>
@@ -11191,25 +11191,25 @@
         <v>171</v>
       </c>
       <c r="B166">
-        <v>0.002153590147811238</v>
+        <v>0.002187536895730381</v>
       </c>
       <c r="C166">
         <v>1</v>
       </c>
       <c r="D166">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E166">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F166">
-        <v>1</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G166" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H166">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="J166" s="1" t="s">
         <v>318</v>
@@ -11241,25 +11241,25 @@
         <v>172</v>
       </c>
       <c r="B167">
-        <v>0.002153590147811238</v>
+        <v>0.002187536895730381</v>
       </c>
       <c r="C167">
         <v>1</v>
       </c>
       <c r="D167">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E167">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F167">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G167" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H167">
-        <v>122</v>
+        <v>32</v>
       </c>
       <c r="J167" s="1" t="s">
         <v>319</v>
@@ -11291,25 +11291,25 @@
         <v>173</v>
       </c>
       <c r="B168">
-        <v>0.002153590147811238</v>
+        <v>0.002187536895730381</v>
       </c>
       <c r="C168">
         <v>1</v>
       </c>
       <c r="D168">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E168">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="F168">
-        <v>0.09999999999999998</v>
+        <v>0.5</v>
       </c>
       <c r="G168" t="b">
         <v>1</v>
       </c>
       <c r="H168">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="J168" s="1" t="s">
         <v>320</v>
@@ -11341,25 +11341,25 @@
         <v>174</v>
       </c>
       <c r="B169">
-        <v>0.002153590147811238</v>
+        <v>0.002187536895730381</v>
       </c>
       <c r="C169">
         <v>1</v>
       </c>
       <c r="D169">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="E169">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F169">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G169" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H169">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="J169" s="1" t="s">
         <v>321</v>
@@ -11391,28 +11391,28 @@
         <v>175</v>
       </c>
       <c r="B170">
-        <v>0.002153590147811238</v>
+        <v>0.002187536895730381</v>
       </c>
       <c r="C170">
         <v>1</v>
       </c>
       <c r="D170">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E170">
-        <v>0.5</v>
+        <v>0.93</v>
       </c>
       <c r="F170">
-        <v>0.5</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G170" t="b">
         <v>1</v>
       </c>
       <c r="H170">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="J170" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K170">
         <v>0.001454078335727459</v>
@@ -11441,25 +11441,25 @@
         <v>176</v>
       </c>
       <c r="B171">
-        <v>0.002153590147811238</v>
+        <v>0.002187536895730381</v>
       </c>
       <c r="C171">
         <v>1</v>
       </c>
       <c r="D171">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="E171">
-        <v>0.97</v>
+        <v>0.67</v>
       </c>
       <c r="F171">
-        <v>0.03000000000000003</v>
+        <v>0.33</v>
       </c>
       <c r="G171" t="b">
         <v>1</v>
       </c>
       <c r="H171">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J171" s="1" t="s">
         <v>322</v>
@@ -11491,25 +11491,25 @@
         <v>177</v>
       </c>
       <c r="B172">
-        <v>0.002153590147811238</v>
+        <v>0.002187536895730381</v>
       </c>
       <c r="C172">
         <v>1</v>
       </c>
       <c r="D172">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E172">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F172">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G172" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H172">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="J172" s="1" t="s">
         <v>323</v>
@@ -11541,25 +11541,25 @@
         <v>178</v>
       </c>
       <c r="B173">
-        <v>0.002153590147811238</v>
+        <v>0.002187536895730381</v>
       </c>
       <c r="C173">
         <v>1</v>
       </c>
       <c r="D173">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E173">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F173">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G173" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H173">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="J173" s="1" t="s">
         <v>324</v>
@@ -11591,7 +11591,7 @@
         <v>179</v>
       </c>
       <c r="B174">
-        <v>0.002153590147811238</v>
+        <v>0.002187536895730381</v>
       </c>
       <c r="C174">
         <v>1</v>
@@ -11609,7 +11609,7 @@
         <v>0</v>
       </c>
       <c r="H174">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="J174" s="1" t="s">
         <v>325</v>
@@ -11641,7 +11641,7 @@
         <v>180</v>
       </c>
       <c r="B175">
-        <v>0.002153590147811238</v>
+        <v>0.002187536895730381</v>
       </c>
       <c r="C175">
         <v>1</v>
@@ -11659,7 +11659,7 @@
         <v>0</v>
       </c>
       <c r="H175">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="J175" s="1" t="s">
         <v>326</v>
@@ -11691,28 +11691,28 @@
         <v>181</v>
       </c>
       <c r="B176">
-        <v>0.002153590147811238</v>
+        <v>0.002187536895730381</v>
       </c>
       <c r="C176">
         <v>1</v>
       </c>
       <c r="D176">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E176">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F176">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G176" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H176">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="J176" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K176">
         <v>0.001454078335727459</v>
@@ -11741,7 +11741,7 @@
         <v>182</v>
       </c>
       <c r="B177">
-        <v>0.002153590147811238</v>
+        <v>0.002187536895730381</v>
       </c>
       <c r="C177">
         <v>1</v>
@@ -11759,7 +11759,7 @@
         <v>0</v>
       </c>
       <c r="H177">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="J177" s="1" t="s">
         <v>327</v>
@@ -11791,25 +11791,25 @@
         <v>183</v>
       </c>
       <c r="B178">
-        <v>0.002153590147811238</v>
+        <v>0.002187536895730381</v>
       </c>
       <c r="C178">
         <v>1</v>
       </c>
       <c r="D178">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E178">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F178">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G178" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H178">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="J178" s="1" t="s">
         <v>328</v>
@@ -11841,25 +11841,25 @@
         <v>184</v>
       </c>
       <c r="B179">
-        <v>0.002153590147811238</v>
+        <v>0.002187536895730381</v>
       </c>
       <c r="C179">
         <v>1</v>
       </c>
       <c r="D179">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E179">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="F179">
-        <v>1</v>
+        <v>0.14</v>
       </c>
       <c r="G179" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H179">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="J179" s="1" t="s">
         <v>329</v>
@@ -11891,25 +11891,25 @@
         <v>185</v>
       </c>
       <c r="B180">
-        <v>0.002153590147811238</v>
+        <v>0.002187536895730381</v>
       </c>
       <c r="C180">
         <v>1</v>
       </c>
       <c r="D180">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E180">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F180">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G180" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H180">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="J180" s="1" t="s">
         <v>330</v>
@@ -11941,25 +11941,25 @@
         <v>186</v>
       </c>
       <c r="B181">
-        <v>0.002153590147811238</v>
+        <v>0.002187536895730381</v>
       </c>
       <c r="C181">
         <v>1</v>
       </c>
       <c r="D181">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="E181">
-        <v>0.86</v>
+        <v>0.96</v>
       </c>
       <c r="F181">
-        <v>0.14</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G181" t="b">
         <v>1</v>
       </c>
       <c r="H181">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="J181" s="1" t="s">
         <v>331</v>
@@ -11991,19 +11991,19 @@
         <v>187</v>
       </c>
       <c r="B182">
-        <v>0.002153590147811238</v>
+        <v>0.002187536895730381</v>
       </c>
       <c r="C182">
         <v>1</v>
       </c>
       <c r="D182">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E182">
-        <v>0.75</v>
+        <v>0.86</v>
       </c>
       <c r="F182">
-        <v>0.25</v>
+        <v>0.14</v>
       </c>
       <c r="G182" t="b">
         <v>1</v>
@@ -12041,25 +12041,25 @@
         <v>188</v>
       </c>
       <c r="B183">
-        <v>0.002153590147811238</v>
+        <v>0.002187536895730381</v>
       </c>
       <c r="C183">
         <v>1</v>
       </c>
       <c r="D183">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="E183">
-        <v>0.96</v>
+        <v>0.5</v>
       </c>
       <c r="F183">
-        <v>0.04000000000000004</v>
+        <v>0.5</v>
       </c>
       <c r="G183" t="b">
         <v>1</v>
       </c>
       <c r="H183">
-        <v>85</v>
+        <v>26</v>
       </c>
       <c r="J183" s="1" t="s">
         <v>333</v>
@@ -12091,25 +12091,25 @@
         <v>189</v>
       </c>
       <c r="B184">
-        <v>0.002153590147811238</v>
+        <v>0.002187536895730381</v>
       </c>
       <c r="C184">
         <v>1</v>
       </c>
       <c r="D184">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E184">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="F184">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="G184" t="b">
         <v>1</v>
       </c>
       <c r="H184">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="J184" s="1" t="s">
         <v>334</v>
@@ -12141,25 +12141,25 @@
         <v>190</v>
       </c>
       <c r="B185">
-        <v>0.002153590147811238</v>
+        <v>0.002187536895730381</v>
       </c>
       <c r="C185">
         <v>1</v>
       </c>
       <c r="D185">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E185">
-        <v>0.5</v>
+        <v>0.89</v>
       </c>
       <c r="F185">
-        <v>0.5</v>
+        <v>0.11</v>
       </c>
       <c r="G185" t="b">
         <v>1</v>
       </c>
       <c r="H185">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J185" s="1" t="s">
         <v>335</v>
@@ -12191,28 +12191,28 @@
         <v>191</v>
       </c>
       <c r="B186">
-        <v>0.002153590147811238</v>
+        <v>0.002187536895730381</v>
       </c>
       <c r="C186">
         <v>1</v>
       </c>
       <c r="D186">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="E186">
-        <v>0.75</v>
+        <v>0.96</v>
       </c>
       <c r="F186">
-        <v>0.25</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G186" t="b">
         <v>1</v>
       </c>
       <c r="H186">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="J186" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K186">
         <v>0.001327385841429166</v>
@@ -12241,25 +12241,25 @@
         <v>192</v>
       </c>
       <c r="B187">
-        <v>0.002153590147811238</v>
+        <v>0.002187536895730381</v>
       </c>
       <c r="C187">
         <v>1</v>
       </c>
       <c r="D187">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E187">
-        <v>0.89</v>
+        <v>0.5</v>
       </c>
       <c r="F187">
-        <v>0.11</v>
+        <v>0.5</v>
       </c>
       <c r="G187" t="b">
         <v>1</v>
       </c>
       <c r="H187">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J187" s="1" t="s">
         <v>336</v>
@@ -12291,25 +12291,25 @@
         <v>193</v>
       </c>
       <c r="B188">
-        <v>0.002153590147811238</v>
+        <v>0.002187536895730381</v>
       </c>
       <c r="C188">
         <v>1</v>
       </c>
       <c r="D188">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="E188">
-        <v>0.96</v>
+        <v>0.75</v>
       </c>
       <c r="F188">
-        <v>0.04000000000000004</v>
+        <v>0.25</v>
       </c>
       <c r="G188" t="b">
         <v>1</v>
       </c>
       <c r="H188">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="J188" s="1" t="s">
         <v>337</v>
@@ -12341,25 +12341,25 @@
         <v>194</v>
       </c>
       <c r="B189">
-        <v>0.002153590147811238</v>
+        <v>0.002187536895730381</v>
       </c>
       <c r="C189">
         <v>1</v>
       </c>
       <c r="D189">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E189">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="F189">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="G189" t="b">
         <v>1</v>
       </c>
       <c r="H189">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="J189" s="1" t="s">
         <v>338</v>
@@ -12391,25 +12391,25 @@
         <v>195</v>
       </c>
       <c r="B190">
-        <v>0.002153590147811238</v>
+        <v>0.002187536895730381</v>
       </c>
       <c r="C190">
         <v>1</v>
       </c>
       <c r="D190">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E190">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="F190">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="G190" t="b">
         <v>1</v>
       </c>
       <c r="H190">
-        <v>19</v>
+        <v>92</v>
       </c>
       <c r="J190" s="1" t="s">
         <v>339</v>
@@ -12441,25 +12441,25 @@
         <v>196</v>
       </c>
       <c r="B191">
-        <v>0.002153590147811238</v>
+        <v>0.002187536895730381</v>
       </c>
       <c r="C191">
         <v>1</v>
       </c>
       <c r="D191">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E191">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="F191">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="G191" t="b">
         <v>1</v>
       </c>
       <c r="H191">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="J191" s="1" t="s">
         <v>340</v>
@@ -12491,28 +12491,28 @@
         <v>197</v>
       </c>
       <c r="B192">
-        <v>0.002153590147811238</v>
+        <v>0.002187536895730381</v>
       </c>
       <c r="C192">
         <v>1</v>
       </c>
       <c r="D192">
-        <v>3</v>
+        <v>80</v>
       </c>
       <c r="E192">
-        <v>0.67</v>
+        <v>0.99</v>
       </c>
       <c r="F192">
-        <v>0.33</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G192" t="b">
         <v>1</v>
       </c>
       <c r="H192">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="J192" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K192">
         <v>0.001327385841429166</v>
@@ -12541,25 +12541,25 @@
         <v>198</v>
       </c>
       <c r="B193">
-        <v>0.002153590147811238</v>
+        <v>0.002187536895730381</v>
       </c>
       <c r="C193">
         <v>1</v>
       </c>
       <c r="D193">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E193">
-        <v>0.67</v>
+        <v>0.86</v>
       </c>
       <c r="F193">
-        <v>0.33</v>
+        <v>0.14</v>
       </c>
       <c r="G193" t="b">
         <v>1</v>
       </c>
       <c r="H193">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="J193" s="1" t="s">
         <v>341</v>
@@ -12591,25 +12591,25 @@
         <v>199</v>
       </c>
       <c r="B194">
-        <v>0.002153590147811238</v>
+        <v>0.002187536895730381</v>
       </c>
       <c r="C194">
         <v>1</v>
       </c>
       <c r="D194">
-        <v>80</v>
+        <v>5</v>
       </c>
       <c r="E194">
-        <v>0.99</v>
+        <v>0.8</v>
       </c>
       <c r="F194">
-        <v>0.01000000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="G194" t="b">
         <v>1</v>
       </c>
       <c r="H194">
-        <v>79</v>
+        <v>36</v>
       </c>
       <c r="J194" s="1" t="s">
         <v>342</v>
@@ -12641,25 +12641,25 @@
         <v>200</v>
       </c>
       <c r="B195">
-        <v>0.002153590147811238</v>
+        <v>0.002187536895730381</v>
       </c>
       <c r="C195">
         <v>1</v>
       </c>
       <c r="D195">
-        <v>7</v>
+        <v>115</v>
       </c>
       <c r="E195">
-        <v>0.86</v>
+        <v>0.99</v>
       </c>
       <c r="F195">
-        <v>0.14</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G195" t="b">
         <v>1</v>
       </c>
       <c r="H195">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="J195" s="1" t="s">
         <v>343</v>
@@ -12691,25 +12691,25 @@
         <v>201</v>
       </c>
       <c r="B196">
-        <v>0.002153590147811238</v>
+        <v>0.002187536895730381</v>
       </c>
       <c r="C196">
         <v>1</v>
       </c>
       <c r="D196">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="E196">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="F196">
-        <v>0.2</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G196" t="b">
         <v>1</v>
       </c>
       <c r="H196">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="J196" s="1" t="s">
         <v>344</v>
@@ -12741,25 +12741,25 @@
         <v>202</v>
       </c>
       <c r="B197">
-        <v>0.002153590147811238</v>
+        <v>0.002187536895730381</v>
       </c>
       <c r="C197">
         <v>1</v>
       </c>
       <c r="D197">
-        <v>115</v>
+        <v>11</v>
       </c>
       <c r="E197">
-        <v>0.99</v>
+        <v>0.91</v>
       </c>
       <c r="F197">
-        <v>0.01000000000000001</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G197" t="b">
         <v>1</v>
       </c>
       <c r="H197">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="J197" s="1" t="s">
         <v>345</v>
@@ -12791,25 +12791,25 @@
         <v>203</v>
       </c>
       <c r="B198">
-        <v>0.002153590147811238</v>
+        <v>0.002187536895730381</v>
       </c>
       <c r="C198">
         <v>1</v>
       </c>
       <c r="D198">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="E198">
-        <v>0.95</v>
+        <v>0.5</v>
       </c>
       <c r="F198">
-        <v>0.05000000000000004</v>
+        <v>0.5</v>
       </c>
       <c r="G198" t="b">
         <v>1</v>
       </c>
       <c r="H198">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="J198" s="1" t="s">
         <v>346</v>
@@ -12841,28 +12841,28 @@
         <v>204</v>
       </c>
       <c r="B199">
-        <v>0.002153590147811238</v>
+        <v>0.002187536895730381</v>
       </c>
       <c r="C199">
         <v>1</v>
       </c>
       <c r="D199">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E199">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="F199">
-        <v>0.08999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G199" t="b">
         <v>1</v>
       </c>
       <c r="H199">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="J199" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K199">
         <v>0.001327385841429166</v>
@@ -12891,25 +12891,25 @@
         <v>205</v>
       </c>
       <c r="B200">
-        <v>0.002153590147811238</v>
+        <v>0.002187536895730381</v>
       </c>
       <c r="C200">
         <v>1</v>
       </c>
       <c r="D200">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E200">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="F200">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G200" t="b">
         <v>1</v>
       </c>
       <c r="H200">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="J200" s="1" t="s">
         <v>347</v>
@@ -12941,25 +12941,25 @@
         <v>206</v>
       </c>
       <c r="B201">
-        <v>0.002153590147811238</v>
+        <v>0.002187536895730381</v>
       </c>
       <c r="C201">
         <v>1</v>
       </c>
       <c r="D201">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E201">
-        <v>0.92</v>
+        <v>0.83</v>
       </c>
       <c r="F201">
-        <v>0.07999999999999996</v>
+        <v>0.17</v>
       </c>
       <c r="G201" t="b">
         <v>1</v>
       </c>
       <c r="H201">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="J201" s="1" t="s">
         <v>348</v>
@@ -12991,25 +12991,25 @@
         <v>207</v>
       </c>
       <c r="B202">
-        <v>0.002153590147811238</v>
+        <v>0.002187536895730381</v>
       </c>
       <c r="C202">
         <v>1</v>
       </c>
       <c r="D202">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="E202">
-        <v>0.75</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F202">
-        <v>0.25</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G202" t="b">
         <v>1</v>
       </c>
       <c r="H202">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="J202" s="1" t="s">
         <v>349</v>
@@ -13041,28 +13041,28 @@
         <v>208</v>
       </c>
       <c r="B203">
-        <v>0.002153590147811238</v>
+        <v>0.002187536895730381</v>
       </c>
       <c r="C203">
         <v>1</v>
       </c>
       <c r="D203">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E203">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="F203">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="G203" t="b">
         <v>1</v>
       </c>
       <c r="H203">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="J203" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K203">
         <v>0.001327385841429166</v>
@@ -13091,13 +13091,13 @@
         <v>209</v>
       </c>
       <c r="B204">
-        <v>0.002153590147811238</v>
+        <v>0.002187536895730381</v>
       </c>
       <c r="C204">
         <v>1</v>
       </c>
       <c r="D204">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E204">
         <v>0.9399999999999999</v>
@@ -13109,7 +13109,7 @@
         <v>1</v>
       </c>
       <c r="H204">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="J204" s="1" t="s">
         <v>350</v>
@@ -13141,25 +13141,25 @@
         <v>210</v>
       </c>
       <c r="B205">
-        <v>0.002153590147811238</v>
+        <v>0.002187536895730381</v>
       </c>
       <c r="C205">
         <v>1</v>
       </c>
       <c r="D205">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E205">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="F205">
-        <v>0.33</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G205" t="b">
         <v>1</v>
       </c>
       <c r="H205">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="J205" s="1" t="s">
         <v>351</v>
@@ -13191,25 +13191,25 @@
         <v>211</v>
       </c>
       <c r="B206">
-        <v>0.002153590147811238</v>
+        <v>0.002187536895730381</v>
       </c>
       <c r="C206">
         <v>1</v>
       </c>
       <c r="D206">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="E206">
-        <v>0.9399999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="F206">
-        <v>0.06000000000000005</v>
+        <v>0.25</v>
       </c>
       <c r="G206" t="b">
         <v>1</v>
       </c>
       <c r="H206">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="J206" s="1" t="s">
         <v>352</v>
@@ -13241,28 +13241,28 @@
         <v>212</v>
       </c>
       <c r="B207">
-        <v>0.002153590147811238</v>
+        <v>0.002187536895730381</v>
       </c>
       <c r="C207">
         <v>1</v>
       </c>
       <c r="D207">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="E207">
-        <v>0.9</v>
+        <v>0.96</v>
       </c>
       <c r="F207">
-        <v>0.09999999999999998</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G207" t="b">
         <v>1</v>
       </c>
       <c r="H207">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="J207" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K207">
         <v>0.001187249989522549</v>
@@ -13291,28 +13291,28 @@
         <v>213</v>
       </c>
       <c r="B208">
-        <v>0.002153590147811238</v>
+        <v>0.002187536895730381</v>
       </c>
       <c r="C208">
         <v>1</v>
       </c>
       <c r="D208">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="E208">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="F208">
-        <v>0.25</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G208" t="b">
         <v>1</v>
       </c>
       <c r="H208">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="J208" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K208">
         <v>0.001187249989522549</v>
@@ -13341,25 +13341,25 @@
         <v>214</v>
       </c>
       <c r="B209">
-        <v>0.002153590147811238</v>
+        <v>0.002187536895730381</v>
       </c>
       <c r="C209">
         <v>1</v>
       </c>
       <c r="D209">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="E209">
-        <v>0.96</v>
+        <v>0.75</v>
       </c>
       <c r="F209">
-        <v>0.04000000000000004</v>
+        <v>0.25</v>
       </c>
       <c r="G209" t="b">
         <v>1</v>
       </c>
       <c r="H209">
-        <v>34</v>
+        <v>124</v>
       </c>
       <c r="J209" s="1" t="s">
         <v>353</v>
@@ -13391,25 +13391,25 @@
         <v>215</v>
       </c>
       <c r="B210">
-        <v>0.002153590147811238</v>
+        <v>0.002187536895730381</v>
       </c>
       <c r="C210">
         <v>1</v>
       </c>
       <c r="D210">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="E210">
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
       <c r="F210">
-        <v>0.05000000000000004</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G210" t="b">
         <v>1</v>
       </c>
       <c r="H210">
-        <v>21</v>
+        <v>213</v>
       </c>
       <c r="J210" s="1" t="s">
         <v>354</v>
@@ -13441,25 +13441,25 @@
         <v>216</v>
       </c>
       <c r="B211">
-        <v>0.002153590147811238</v>
+        <v>0.002187536895730381</v>
       </c>
       <c r="C211">
         <v>1</v>
       </c>
       <c r="D211">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E211">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="F211">
-        <v>0.25</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G211" t="b">
         <v>1</v>
       </c>
       <c r="H211">
-        <v>124</v>
+        <v>76</v>
       </c>
       <c r="J211" s="1" t="s">
         <v>355</v>
@@ -13491,25 +13491,25 @@
         <v>217</v>
       </c>
       <c r="B212">
-        <v>0.002153590147811238</v>
+        <v>0.002187536895730381</v>
       </c>
       <c r="C212">
         <v>1</v>
       </c>
       <c r="D212">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="E212">
-        <v>0.92</v>
+        <v>0.96</v>
       </c>
       <c r="F212">
-        <v>0.07999999999999996</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G212" t="b">
         <v>1</v>
       </c>
       <c r="H212">
-        <v>213</v>
+        <v>39</v>
       </c>
       <c r="J212" s="1" t="s">
         <v>356</v>
@@ -13541,25 +13541,25 @@
         <v>218</v>
       </c>
       <c r="B213">
-        <v>0.002153590147811238</v>
+        <v>0.002187536895730381</v>
       </c>
       <c r="C213">
         <v>1</v>
       </c>
       <c r="D213">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E213">
-        <v>0.92</v>
+        <v>0.88</v>
       </c>
       <c r="F213">
-        <v>0.07999999999999996</v>
+        <v>0.12</v>
       </c>
       <c r="G213" t="b">
         <v>1</v>
       </c>
       <c r="H213">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="J213" s="1" t="s">
         <v>357</v>
@@ -13591,25 +13591,25 @@
         <v>219</v>
       </c>
       <c r="B214">
-        <v>0.002153590147811238</v>
+        <v>0.002187536895730381</v>
       </c>
       <c r="C214">
         <v>1</v>
       </c>
       <c r="D214">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="E214">
-        <v>0.96</v>
+        <v>0.91</v>
       </c>
       <c r="F214">
-        <v>0.04000000000000004</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G214" t="b">
         <v>1</v>
       </c>
       <c r="H214">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J214" s="1" t="s">
         <v>358</v>
@@ -13641,7 +13641,7 @@
         <v>220</v>
       </c>
       <c r="B215">
-        <v>0.002153590147811238</v>
+        <v>0.002187536895730381</v>
       </c>
       <c r="C215">
         <v>1</v>
@@ -13659,7 +13659,7 @@
         <v>1</v>
       </c>
       <c r="H215">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="J215" s="1" t="s">
         <v>359</v>
@@ -13691,25 +13691,25 @@
         <v>221</v>
       </c>
       <c r="B216">
-        <v>0.002153590147811238</v>
+        <v>0.002187536895730381</v>
       </c>
       <c r="C216">
         <v>1</v>
       </c>
       <c r="D216">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="E216">
-        <v>0.91</v>
+        <v>0.99</v>
       </c>
       <c r="F216">
-        <v>0.08999999999999997</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G216" t="b">
         <v>1</v>
       </c>
       <c r="H216">
-        <v>44</v>
+        <v>211</v>
       </c>
       <c r="J216" s="1" t="s">
         <v>360</v>
@@ -13741,25 +13741,25 @@
         <v>222</v>
       </c>
       <c r="B217">
-        <v>0.002153590147811238</v>
+        <v>0.002187536895730381</v>
       </c>
       <c r="C217">
         <v>1</v>
       </c>
       <c r="D217">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="E217">
-        <v>0.88</v>
+        <v>0.98</v>
       </c>
       <c r="F217">
-        <v>0.12</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G217" t="b">
         <v>1</v>
       </c>
       <c r="H217">
-        <v>57</v>
+        <v>122</v>
       </c>
       <c r="J217" s="1" t="s">
         <v>361</v>
@@ -13791,25 +13791,25 @@
         <v>223</v>
       </c>
       <c r="B218">
-        <v>0.002153590147811238</v>
+        <v>0.002187536895730381</v>
       </c>
       <c r="C218">
         <v>1</v>
       </c>
       <c r="D218">
-        <v>97</v>
+        <v>22</v>
       </c>
       <c r="E218">
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="F218">
-        <v>0.01000000000000001</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G218" t="b">
         <v>1</v>
       </c>
       <c r="H218">
-        <v>211</v>
+        <v>115</v>
       </c>
       <c r="J218" s="1" t="s">
         <v>362</v>
@@ -13841,25 +13841,25 @@
         <v>224</v>
       </c>
       <c r="B219">
-        <v>0.002153590147811238</v>
+        <v>0.002187536895730381</v>
       </c>
       <c r="C219">
         <v>1</v>
       </c>
       <c r="D219">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="E219">
-        <v>0.98</v>
+        <v>0.92</v>
       </c>
       <c r="F219">
-        <v>0.02000000000000002</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G219" t="b">
         <v>1</v>
       </c>
       <c r="H219">
-        <v>122</v>
+        <v>288</v>
       </c>
       <c r="J219" s="1" t="s">
         <v>363</v>
@@ -13891,25 +13891,25 @@
         <v>225</v>
       </c>
       <c r="B220">
-        <v>0.002153590147811238</v>
+        <v>0.002187536895730381</v>
       </c>
       <c r="C220">
         <v>1</v>
       </c>
       <c r="D220">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="E220">
-        <v>0.95</v>
+        <v>0.83</v>
       </c>
       <c r="F220">
-        <v>0.05000000000000004</v>
+        <v>0.17</v>
       </c>
       <c r="G220" t="b">
         <v>1</v>
       </c>
       <c r="H220">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="J220" s="1" t="s">
         <v>364</v>
@@ -13941,13 +13941,13 @@
         <v>226</v>
       </c>
       <c r="B221">
-        <v>0.002153590147811238</v>
+        <v>0.002187536895730381</v>
       </c>
       <c r="C221">
         <v>1</v>
       </c>
       <c r="D221">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E221">
         <v>0.92</v>
@@ -13959,7 +13959,7 @@
         <v>1</v>
       </c>
       <c r="H221">
-        <v>288</v>
+        <v>34</v>
       </c>
       <c r="J221" s="1" t="s">
         <v>365</v>
@@ -13991,25 +13991,25 @@
         <v>227</v>
       </c>
       <c r="B222">
-        <v>0.002153590147811238</v>
+        <v>0.002187536895730381</v>
       </c>
       <c r="C222">
         <v>1</v>
       </c>
       <c r="D222">
+        <v>53</v>
+      </c>
+      <c r="E222">
+        <v>0.98</v>
+      </c>
+      <c r="F222">
+        <v>0.02000000000000002</v>
+      </c>
+      <c r="G222" t="b">
+        <v>1</v>
+      </c>
+      <c r="H222">
         <v>6</v>
-      </c>
-      <c r="E222">
-        <v>0.83</v>
-      </c>
-      <c r="F222">
-        <v>0.17</v>
-      </c>
-      <c r="G222" t="b">
-        <v>1</v>
-      </c>
-      <c r="H222">
-        <v>123</v>
       </c>
       <c r="J222" s="1" t="s">
         <v>366</v>
@@ -14041,25 +14041,25 @@
         <v>228</v>
       </c>
       <c r="B223">
-        <v>0.002153590147811238</v>
+        <v>0.002187536895730381</v>
       </c>
       <c r="C223">
         <v>1</v>
       </c>
       <c r="D223">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="E223">
-        <v>0.92</v>
+        <v>0.98</v>
       </c>
       <c r="F223">
-        <v>0.07999999999999996</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G223" t="b">
         <v>1</v>
       </c>
       <c r="H223">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="J223" s="1" t="s">
         <v>367</v>
@@ -14091,25 +14091,25 @@
         <v>229</v>
       </c>
       <c r="B224">
-        <v>0.002153590147811238</v>
+        <v>0.002187536895730381</v>
       </c>
       <c r="C224">
         <v>1</v>
       </c>
       <c r="D224">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="E224">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="F224">
-        <v>0.02000000000000002</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G224" t="b">
         <v>1</v>
       </c>
       <c r="H224">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="J224" s="1" t="s">
         <v>368</v>
@@ -14141,25 +14141,25 @@
         <v>230</v>
       </c>
       <c r="B225">
-        <v>0.002153590147811238</v>
+        <v>0.002187536895730381</v>
       </c>
       <c r="C225">
         <v>1</v>
       </c>
       <c r="D225">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="E225">
-        <v>0.98</v>
+        <v>0.92</v>
       </c>
       <c r="F225">
-        <v>0.02000000000000002</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G225" t="b">
         <v>1</v>
       </c>
       <c r="H225">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="J225" s="1" t="s">
         <v>369</v>
@@ -14191,13 +14191,13 @@
         <v>231</v>
       </c>
       <c r="B226">
-        <v>0.002153590147811238</v>
+        <v>0.002187536895730381</v>
       </c>
       <c r="C226">
         <v>1</v>
       </c>
       <c r="D226">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E226">
         <v>0.97</v>
@@ -14209,7 +14209,7 @@
         <v>1</v>
       </c>
       <c r="H226">
-        <v>49</v>
+        <v>109</v>
       </c>
       <c r="J226" s="1" t="s">
         <v>370</v>
@@ -14241,25 +14241,25 @@
         <v>232</v>
       </c>
       <c r="B227">
-        <v>0.002153590147811238</v>
+        <v>0.002187536895730381</v>
       </c>
       <c r="C227">
         <v>1</v>
       </c>
       <c r="D227">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="E227">
-        <v>0.92</v>
+        <v>0.97</v>
       </c>
       <c r="F227">
-        <v>0.07999999999999996</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G227" t="b">
         <v>1</v>
       </c>
       <c r="H227">
-        <v>85</v>
+        <v>14</v>
       </c>
       <c r="J227" s="1" t="s">
         <v>371</v>
@@ -14291,25 +14291,25 @@
         <v>233</v>
       </c>
       <c r="B228">
-        <v>0.002153590147811238</v>
+        <v>0.002187536895730381</v>
       </c>
       <c r="C228">
         <v>1</v>
       </c>
       <c r="D228">
-        <v>34</v>
+        <v>119</v>
       </c>
       <c r="E228">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="F228">
-        <v>0.03000000000000003</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G228" t="b">
         <v>1</v>
       </c>
       <c r="H228">
-        <v>109</v>
+        <v>23</v>
       </c>
       <c r="J228" s="1" t="s">
         <v>372</v>
@@ -14341,25 +14341,25 @@
         <v>234</v>
       </c>
       <c r="B229">
-        <v>0.002153590147811238</v>
+        <v>0.002187536895730381</v>
       </c>
       <c r="C229">
         <v>1</v>
       </c>
       <c r="D229">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="E229">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="F229">
-        <v>0.03000000000000003</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G229" t="b">
         <v>1</v>
       </c>
       <c r="H229">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="J229" s="1" t="s">
         <v>373</v>
@@ -14391,25 +14391,25 @@
         <v>235</v>
       </c>
       <c r="B230">
-        <v>0.002153590147811238</v>
+        <v>0.002187536895730381</v>
       </c>
       <c r="C230">
         <v>1</v>
       </c>
       <c r="D230">
-        <v>119</v>
+        <v>8</v>
       </c>
       <c r="E230">
-        <v>0.99</v>
+        <v>0.88</v>
       </c>
       <c r="F230">
-        <v>0.01000000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="G230" t="b">
         <v>1</v>
       </c>
       <c r="H230">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J230" s="1" t="s">
         <v>374</v>
@@ -14441,25 +14441,25 @@
         <v>236</v>
       </c>
       <c r="B231">
-        <v>0.002153590147811238</v>
+        <v>0.002187536895730381</v>
       </c>
       <c r="C231">
         <v>1</v>
       </c>
       <c r="D231">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="E231">
-        <v>0.98</v>
+        <v>0.92</v>
       </c>
       <c r="F231">
-        <v>0.02000000000000002</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G231" t="b">
         <v>1</v>
       </c>
       <c r="H231">
-        <v>100</v>
+        <v>53</v>
       </c>
       <c r="J231" s="1" t="s">
         <v>375</v>
@@ -14491,25 +14491,25 @@
         <v>237</v>
       </c>
       <c r="B232">
-        <v>0.002153590147811238</v>
+        <v>0.002187536895730381</v>
       </c>
       <c r="C232">
         <v>1</v>
       </c>
       <c r="D232">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E232">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="F232">
-        <v>0.12</v>
+        <v>0.17</v>
       </c>
       <c r="G232" t="b">
         <v>1</v>
       </c>
       <c r="H232">
-        <v>20</v>
+        <v>95</v>
       </c>
       <c r="J232" s="1" t="s">
         <v>376</v>
@@ -14541,25 +14541,25 @@
         <v>238</v>
       </c>
       <c r="B233">
-        <v>0.002153590147811238</v>
+        <v>0.002187536895730381</v>
       </c>
       <c r="C233">
         <v>1</v>
       </c>
       <c r="D233">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E233">
-        <v>0.92</v>
+        <v>0.8</v>
       </c>
       <c r="F233">
-        <v>0.07999999999999996</v>
+        <v>0.2</v>
       </c>
       <c r="G233" t="b">
         <v>1</v>
       </c>
       <c r="H233">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>377</v>
@@ -14591,25 +14591,25 @@
         <v>239</v>
       </c>
       <c r="B234">
-        <v>0.002153590147811238</v>
+        <v>0.002187536895730381</v>
       </c>
       <c r="C234">
         <v>1</v>
       </c>
       <c r="D234">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E234">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="F234">
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="G234" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H234">
-        <v>95</v>
+        <v>9</v>
       </c>
       <c r="J234" s="1" t="s">
         <v>378</v>
@@ -14641,25 +14641,25 @@
         <v>240</v>
       </c>
       <c r="B235">
-        <v>0.002153590147811238</v>
+        <v>0.002187536895730381</v>
       </c>
       <c r="C235">
         <v>1</v>
       </c>
       <c r="D235">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E235">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F235">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G235" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H235">
-        <v>46</v>
+        <v>165</v>
       </c>
       <c r="J235" s="1" t="s">
         <v>379</v>
@@ -14691,7 +14691,7 @@
         <v>241</v>
       </c>
       <c r="B236">
-        <v>0.002153590147811238</v>
+        <v>0.002187536895730381</v>
       </c>
       <c r="C236">
         <v>1</v>
@@ -14709,7 +14709,7 @@
         <v>0</v>
       </c>
       <c r="H236">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J236" s="1" t="s">
         <v>380</v>
@@ -14741,7 +14741,7 @@
         <v>242</v>
       </c>
       <c r="B237">
-        <v>0.002153590147811238</v>
+        <v>0.002187536895730381</v>
       </c>
       <c r="C237">
         <v>1</v>
@@ -14759,7 +14759,7 @@
         <v>0</v>
       </c>
       <c r="H237">
-        <v>165</v>
+        <v>14</v>
       </c>
       <c r="J237" s="1" t="s">
         <v>381</v>
@@ -14791,7 +14791,7 @@
         <v>243</v>
       </c>
       <c r="B238">
-        <v>0.002153590147811238</v>
+        <v>0.002187536895730381</v>
       </c>
       <c r="C238">
         <v>1</v>
@@ -14809,7 +14809,7 @@
         <v>0</v>
       </c>
       <c r="H238">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="J238" s="1" t="s">
         <v>382</v>
@@ -14841,7 +14841,7 @@
         <v>244</v>
       </c>
       <c r="B239">
-        <v>0.002153590147811238</v>
+        <v>0.002187536895730381</v>
       </c>
       <c r="C239">
         <v>1</v>
@@ -14859,7 +14859,7 @@
         <v>0</v>
       </c>
       <c r="H239">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="J239" s="1" t="s">
         <v>383</v>
@@ -14891,7 +14891,7 @@
         <v>245</v>
       </c>
       <c r="B240">
-        <v>0.002153590147811238</v>
+        <v>0.002187536895730381</v>
       </c>
       <c r="C240">
         <v>1</v>
@@ -14909,7 +14909,7 @@
         <v>0</v>
       </c>
       <c r="H240">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="J240" s="1" t="s">
         <v>384</v>
@@ -14936,31 +14936,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="241" spans="1:17">
-      <c r="A241" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="B241">
-        <v>0.002153590147811238</v>
-      </c>
-      <c r="C241">
-        <v>1</v>
-      </c>
-      <c r="D241">
-        <v>1</v>
-      </c>
-      <c r="E241">
-        <v>0</v>
-      </c>
-      <c r="F241">
-        <v>1</v>
-      </c>
-      <c r="G241" t="b">
-        <v>0</v>
-      </c>
-      <c r="H241">
-        <v>25</v>
-      </c>
+    <row r="241" spans="10:17">
       <c r="J241" s="1" t="s">
         <v>385</v>
       </c>
@@ -14986,33 +14962,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="242" spans="1:17">
-      <c r="A242" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="B242">
-        <v>0.002153590147811238</v>
-      </c>
-      <c r="C242">
-        <v>1</v>
-      </c>
-      <c r="D242">
-        <v>1</v>
-      </c>
-      <c r="E242">
-        <v>0</v>
-      </c>
-      <c r="F242">
-        <v>1</v>
-      </c>
-      <c r="G242" t="b">
-        <v>0</v>
-      </c>
-      <c r="H242">
-        <v>10</v>
-      </c>
+    <row r="242" spans="10:17">
       <c r="J242" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K242">
         <v>0.001187249989522549</v>
@@ -15036,7 +14988,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="243" spans="1:17">
+    <row r="243" spans="10:17">
       <c r="J243" s="1" t="s">
         <v>386</v>
       </c>
@@ -15062,7 +15014,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="244" spans="1:17">
+    <row r="244" spans="10:17">
       <c r="J244" s="1" t="s">
         <v>387</v>
       </c>
@@ -15088,7 +15040,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="245" spans="1:17">
+    <row r="245" spans="10:17">
       <c r="J245" s="1" t="s">
         <v>388</v>
       </c>
@@ -15114,9 +15066,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="246" spans="1:17">
+    <row r="246" spans="10:17">
       <c r="J246" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K246">
         <v>0.001187249989522549</v>
@@ -15140,7 +15092,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="247" spans="1:17">
+    <row r="247" spans="10:17">
       <c r="J247" s="1" t="s">
         <v>389</v>
       </c>
@@ -15166,7 +15118,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="248" spans="1:17">
+    <row r="248" spans="10:17">
       <c r="J248" s="1" t="s">
         <v>390</v>
       </c>
@@ -15192,7 +15144,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="249" spans="1:17">
+    <row r="249" spans="10:17">
       <c r="J249" s="1" t="s">
         <v>391</v>
       </c>
@@ -15218,7 +15170,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="250" spans="1:17">
+    <row r="250" spans="10:17">
       <c r="J250" s="1" t="s">
         <v>392</v>
       </c>
@@ -15244,7 +15196,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="251" spans="1:17">
+    <row r="251" spans="10:17">
       <c r="J251" s="1" t="s">
         <v>393</v>
       </c>
@@ -15270,7 +15222,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="252" spans="1:17">
+    <row r="252" spans="10:17">
       <c r="J252" s="1" t="s">
         <v>394</v>
       </c>
@@ -15296,7 +15248,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="253" spans="1:17">
+    <row r="253" spans="10:17">
       <c r="J253" s="1" t="s">
         <v>395</v>
       </c>
@@ -15322,9 +15274,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="254" spans="1:17">
+    <row r="254" spans="10:17">
       <c r="J254" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K254">
         <v>0.001028188651569336</v>
@@ -15348,7 +15300,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="255" spans="1:17">
+    <row r="255" spans="10:17">
       <c r="J255" s="1" t="s">
         <v>396</v>
       </c>
@@ -15374,7 +15326,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="256" spans="1:17">
+    <row r="256" spans="10:17">
       <c r="J256" s="1" t="s">
         <v>397</v>
       </c>
@@ -15610,7 +15562,7 @@
     </row>
     <row r="265" spans="10:17">
       <c r="J265" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K265">
         <v>0.001028188651569336</v>
@@ -15792,7 +15744,7 @@
     </row>
     <row r="272" spans="10:17">
       <c r="J272" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K272">
         <v>0.001028188651569336</v>
@@ -16078,7 +16030,7 @@
     </row>
     <row r="283" spans="10:17">
       <c r="J283" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K283">
         <v>0.001028188651569336</v>
@@ -16234,7 +16186,7 @@
     </row>
     <row r="289" spans="10:17">
       <c r="J289" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K289">
         <v>0.001028188651569336</v>
@@ -16520,7 +16472,7 @@
     </row>
     <row r="300" spans="10:17">
       <c r="J300" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K300">
         <v>0.001028188651569336</v>
@@ -16572,7 +16524,7 @@
     </row>
     <row r="302" spans="10:17">
       <c r="J302" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K302">
         <v>0.001028188651569336</v>
@@ -16728,7 +16680,7 @@
     </row>
     <row r="308" spans="10:17">
       <c r="J308" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K308">
         <v>0.001028188651569336</v>
@@ -16936,7 +16888,7 @@
     </row>
     <row r="316" spans="10:17">
       <c r="J316" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K316">
         <v>0.001028188651569336</v>
@@ -17222,7 +17174,7 @@
     </row>
     <row r="327" spans="10:17">
       <c r="J327" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K327">
         <v>0.0008395125185550516</v>
@@ -17560,7 +17512,7 @@
     </row>
     <row r="340" spans="10:17">
       <c r="J340" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K340">
         <v>0.0008395125185550516</v>
@@ -17794,7 +17746,7 @@
     </row>
     <row r="349" spans="10:17">
       <c r="J349" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K349">
         <v>0.0008395125185550516</v>
@@ -18002,7 +17954,7 @@
     </row>
     <row r="357" spans="10:17">
       <c r="J357" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K357">
         <v>0.0008395125185550516</v>
@@ -18028,7 +17980,7 @@
     </row>
     <row r="358" spans="10:17">
       <c r="J358" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K358">
         <v>0.0008395125185550516</v>
@@ -18652,7 +18604,7 @@
     </row>
     <row r="382" spans="10:17">
       <c r="J382" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K382">
         <v>0.0008395125185550516</v>
@@ -19042,7 +18994,7 @@
     </row>
     <row r="397" spans="10:17">
       <c r="J397" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K397">
         <v>0.0008395125185550516</v>
@@ -19328,7 +19280,7 @@
     </row>
     <row r="408" spans="10:17">
       <c r="J408" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K408">
         <v>0.0008395125185550516</v>
@@ -20966,7 +20918,7 @@
     </row>
     <row r="471" spans="10:17">
       <c r="J471" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K471">
         <v>0.0005936249947612743</v>
@@ -21642,7 +21594,7 @@
     </row>
     <row r="497" spans="10:17">
       <c r="J497" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K497">
         <v>0.0005936249947612743</v>
@@ -21668,7 +21620,7 @@
     </row>
     <row r="498" spans="10:17">
       <c r="J498" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K498">
         <v>0.0005936249947612743</v>
@@ -22084,7 +22036,7 @@
     </row>
     <row r="514" spans="10:17">
       <c r="J514" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="K514">
         <v>0.0005936249947612743</v>
@@ -22266,7 +22218,7 @@
     </row>
     <row r="521" spans="10:17">
       <c r="J521" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K521">
         <v>0.0005936249947612743</v>
@@ -23124,7 +23076,7 @@
     </row>
     <row r="554" spans="10:17">
       <c r="J554" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K554">
         <v>0.0005936249947612743</v>
@@ -24606,7 +24558,7 @@
     </row>
     <row r="611" spans="10:17">
       <c r="J611" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K611">
         <v>0.0005936249947612743</v>
@@ -25048,7 +25000,7 @@
     </row>
     <row r="628" spans="10:17">
       <c r="J628" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K628">
         <v>0.0005936249947612743</v>
@@ -26010,7 +25962,7 @@
     </row>
     <row r="665" spans="10:17">
       <c r="J665" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K665">
         <v>0.0005936249947612743</v>
@@ -26634,7 +26586,7 @@
     </row>
     <row r="689" spans="10:17">
       <c r="J689" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="K689">
         <v>0.0005936249947612743</v>
@@ -27284,7 +27236,7 @@
     </row>
     <row r="714" spans="10:17">
       <c r="J714" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K714">
         <v>0.0005936249947612743</v>
